--- a/Полезные ссылки по Python2.xlsx
+++ b/Полезные ссылки по Python2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\КООРДИНАТОР DS\PYDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Тамара\Documents\Мои документы\Учеба\Аналитик данных\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153349ED-3582-4085-85E6-E25F59C1C38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5892" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="общие ссылки" sheetId="9" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="392">
   <si>
     <t>https://habr.com/ru/company/ods/blog/323890/</t>
   </si>
@@ -1225,11 +1226,14 @@
   <si>
     <t>«Средние» значения — ваш враг. Как не попасться на удочку усреднения</t>
   </si>
+  <si>
+    <t>+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="10"/>
@@ -1526,6 +1530,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1545,9 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1764,131 +1768,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E938"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="88.88671875" customWidth="1"/>
+    <col min="1" max="1" width="88.85546875" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.2">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="42"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.8">
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="43"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.8">
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="43"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.2">
+      <c r="C5" s="44"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.75">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="43"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="43"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.8">
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.8">
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="43"/>
-    </row>
-    <row r="11" spans="1:5" ht="27.6">
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.5">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="43"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.2">
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.75">
       <c r="A12" s="5"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="13.2">
+    <row r="13" spans="1:5" ht="12.75">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="13.8">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1897,7 +1901,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="13.8">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -1906,7 +1910,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="13.8">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -1915,7 +1919,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="13.8">
+    <row r="17" spans="1:3" ht="28.5">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1924,29 +1928,29 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="13.2">
+    <row r="18" spans="1:3" ht="12.75">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="13.2">
+    <row r="19" spans="1:3" ht="12.75">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="13.2">
+    <row r="20" spans="1:3" ht="12.75">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="13.2">
+    <row r="21" spans="1:3" ht="12.75">
       <c r="A21" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="27.6">
+    <row r="22" spans="1:3" ht="28.5">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1955,7 +1959,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="13.8">
+    <row r="23" spans="1:3" ht="14.25">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -1964,7 +1968,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="26.4">
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +1979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.8">
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -1986,19 +1990,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.2">
+    <row r="26" spans="1:3" ht="12.75">
       <c r="A26" s="5"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" ht="13.2">
+    <row r="27" spans="1:3" ht="12.75">
       <c r="A27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" ht="13.8">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
@@ -2007,7 +2011,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" ht="13.8">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="6" t="s">
         <v>46</v>
       </c>
@@ -2016,7 +2020,7 @@
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" ht="13.8">
+    <row r="30" spans="1:3" ht="14.25">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -2025,34 +2029,34 @@
       </c>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" ht="13.2">
+    <row r="31" spans="1:3" ht="12.75">
       <c r="A31" s="5"/>
       <c r="B31" s="9"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" ht="13.2">
+    <row r="32" spans="1:3" ht="12.75">
       <c r="A32" s="5"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" ht="13.2">
+    <row r="33" spans="1:4" ht="12.75">
       <c r="A33" s="5"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" ht="13.2">
+    <row r="34" spans="1:4" ht="12.75">
       <c r="A34" s="5"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" ht="13.2">
+    <row r="35" spans="1:4" ht="12.75">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" ht="13.2">
+    <row r="36" spans="1:4" ht="12.75">
       <c r="A36" s="15" t="s">
         <v>51</v>
       </c>
@@ -2060,8 +2064,11 @@
         <v>52</v>
       </c>
       <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="13.2">
+      <c r="D36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="12.75">
       <c r="A37" s="15" t="s">
         <v>53</v>
       </c>
@@ -2070,7 +2077,7 @@
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" ht="13.2">
+    <row r="38" spans="1:4" ht="12.75">
       <c r="A38" s="15" t="s">
         <v>55</v>
       </c>
@@ -2079,7 +2086,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3" ht="13.2">
+    <row r="39" spans="1:4" ht="12.75">
       <c r="A39" s="15" t="s">
         <v>57</v>
       </c>
@@ -2088,7 +2095,7 @@
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3" ht="13.2">
+    <row r="40" spans="1:4" ht="12.75">
       <c r="A40" s="15" t="s">
         <v>59</v>
       </c>
@@ -2097,7 +2104,7 @@
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3" ht="13.2">
+    <row r="41" spans="1:4" ht="12.75">
       <c r="A41" s="15" t="s">
         <v>61</v>
       </c>
@@ -2106,7 +2113,7 @@
       </c>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3" ht="13.2">
+    <row r="42" spans="1:4" ht="12.75">
       <c r="A42" s="15" t="s">
         <v>63</v>
       </c>
@@ -2114,8 +2121,11 @@
         <v>64</v>
       </c>
       <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" ht="13.2">
+      <c r="D42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="12.75">
       <c r="A43" s="15" t="s">
         <v>65</v>
       </c>
@@ -2124,34 +2134,34 @@
       </c>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="13.2">
+    <row r="44" spans="1:4" ht="12.75">
       <c r="A44" s="14"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" ht="13.2">
+    <row r="45" spans="1:4" ht="12.75">
       <c r="A45" s="5"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" ht="13.2">
+    <row r="46" spans="1:4" ht="12.75">
       <c r="A46" s="5"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3" ht="13.2">
+    <row r="47" spans="1:4" ht="12.75">
       <c r="A47" s="5"/>
       <c r="B47" s="9"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" ht="13.2">
+    <row r="48" spans="1:4" ht="12.75">
       <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" ht="13.2">
+    <row r="49" spans="1:3" ht="12.75">
       <c r="A49" s="15" t="s">
         <v>68</v>
       </c>
@@ -2162,7 +2172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.2">
+    <row r="50" spans="1:3" ht="12.75">
       <c r="A50" s="15" t="s">
         <v>71</v>
       </c>
@@ -2171,7 +2181,7 @@
       </c>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:3" ht="13.2">
+    <row r="51" spans="1:3" ht="12.75">
       <c r="A51" s="15" t="s">
         <v>73</v>
       </c>
@@ -2180,7 +2190,7 @@
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" ht="13.2">
+    <row r="52" spans="1:3" ht="12.75">
       <c r="A52" s="15" t="s">
         <v>75</v>
       </c>
@@ -2189,7 +2199,7 @@
       </c>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" ht="13.2">
+    <row r="53" spans="1:3" ht="12.75">
       <c r="A53" s="15" t="s">
         <v>77</v>
       </c>
@@ -2198,7 +2208,7 @@
       </c>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" ht="13.2">
+    <row r="54" spans="1:3" ht="12.75">
       <c r="A54" s="15" t="s">
         <v>79</v>
       </c>
@@ -2207,7 +2217,7 @@
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" ht="13.2">
+    <row r="55" spans="1:3" ht="12.75">
       <c r="A55" s="15" t="s">
         <v>81</v>
       </c>
@@ -2216,7 +2226,7 @@
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="13.2">
+    <row r="56" spans="1:3" ht="12.75">
       <c r="A56" s="15" t="s">
         <v>83</v>
       </c>
@@ -2225,7 +2235,7 @@
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" ht="13.2">
+    <row r="57" spans="1:3" ht="12.75">
       <c r="A57" s="15" t="s">
         <v>85</v>
       </c>
@@ -2234,24 +2244,24 @@
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" ht="13.2">
+    <row r="58" spans="1:3" ht="12.75">
       <c r="A58" s="5"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" ht="13.2">
+    <row r="59" spans="1:3" ht="12.75">
       <c r="A59" s="5"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:3" ht="13.2">
+    <row r="60" spans="1:3" ht="12.75">
       <c r="A60" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3" ht="13.2">
+    <row r="61" spans="1:3" ht="12.75">
       <c r="A61" s="15" t="s">
         <v>88</v>
       </c>
@@ -2260,7 +2270,7 @@
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3" ht="13.2">
+    <row r="62" spans="1:3" ht="12.75">
       <c r="A62" s="15" t="s">
         <v>90</v>
       </c>
@@ -2269,7 +2279,7 @@
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3" ht="13.2">
+    <row r="63" spans="1:3" ht="12.75">
       <c r="A63" s="15" t="s">
         <v>92</v>
       </c>
@@ -2278,23 +2288,23 @@
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3" ht="13.2">
+    <row r="64" spans="1:3" ht="12.75">
       <c r="A64" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="40" t="s">
         <v>95</v>
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3" ht="13.2">
+    <row r="65" spans="1:3" ht="12.75">
       <c r="A65" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:3" ht="13.2">
+    <row r="66" spans="1:3" ht="12.75">
       <c r="A66" s="15" t="s">
         <v>97</v>
       </c>
@@ -2303,24 +2313,24 @@
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:3" ht="13.2">
+    <row r="67" spans="1:3" ht="12.75">
       <c r="A67" s="5"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="1:3" ht="13.2">
+    <row r="68" spans="1:3" ht="12.75">
       <c r="A68" s="5"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="1:3" ht="46.2" customHeight="1">
+    <row r="69" spans="1:3" ht="46.15" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:3" ht="13.2">
+    <row r="70" spans="1:3" ht="12.75">
       <c r="A70" s="15" t="s">
         <v>100</v>
       </c>
@@ -2329,7 +2339,7 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="13.2">
+    <row r="71" spans="1:3" ht="12.75">
       <c r="A71" s="15" t="s">
         <v>102</v>
       </c>
@@ -2338,7 +2348,7 @@
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3" ht="13.2">
+    <row r="72" spans="1:3" ht="12.75">
       <c r="A72" s="15" t="s">
         <v>104</v>
       </c>
@@ -2349,7 +2359,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.2">
+    <row r="73" spans="1:3" ht="12.75">
       <c r="A73" s="15" t="s">
         <v>107</v>
       </c>
@@ -2358,7 +2368,7 @@
       </c>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="1:3" ht="26.4">
+    <row r="74" spans="1:3" ht="25.5">
       <c r="A74" s="15" t="s">
         <v>109</v>
       </c>
@@ -2369,7 +2379,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.2">
+    <row r="75" spans="1:3" ht="12.75">
       <c r="A75" s="15" t="s">
         <v>112</v>
       </c>
@@ -2380,7 +2390,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.2">
+    <row r="76" spans="1:3" ht="12.75">
       <c r="A76" s="15" t="s">
         <v>115</v>
       </c>
@@ -2391,7 +2401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.2">
+    <row r="77" spans="1:3" ht="12.75">
       <c r="A77" s="15" t="s">
         <v>117</v>
       </c>
@@ -2402,24 +2412,24 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.2">
+    <row r="78" spans="1:3" ht="12.75">
       <c r="A78" s="5"/>
       <c r="B78" s="9"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="1:3" ht="13.2">
+    <row r="79" spans="1:3" ht="12.75">
       <c r="A79" s="5"/>
       <c r="B79" s="9"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:3" ht="46.8" customHeight="1">
+    <row r="80" spans="1:3" ht="46.9" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="1:3" ht="13.2">
+    <row r="81" spans="1:3" ht="12.75">
       <c r="A81" s="15" t="s">
         <v>119</v>
       </c>
@@ -2428,7 +2438,7 @@
       </c>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="1:3" ht="13.2">
+    <row r="82" spans="1:3" ht="12.75">
       <c r="A82" s="15" t="s">
         <v>121</v>
       </c>
@@ -2439,7 +2449,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13.2">
+    <row r="83" spans="1:3" ht="12.75">
       <c r="A83" s="15" t="s">
         <v>123</v>
       </c>
@@ -2450,7 +2460,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.2">
+    <row r="84" spans="1:3" ht="12.75">
       <c r="A84" s="15" t="s">
         <v>126</v>
       </c>
@@ -2461,7 +2471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.2">
+    <row r="85" spans="1:3" ht="12.75">
       <c r="A85" s="15" t="s">
         <v>128</v>
       </c>
@@ -2470,7 +2480,7 @@
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:3" ht="13.2">
+    <row r="86" spans="1:3" ht="12.75">
       <c r="A86" s="15" t="s">
         <v>130</v>
       </c>
@@ -2479,7 +2489,7 @@
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:3" ht="26.4">
+    <row r="87" spans="1:3" ht="25.5">
       <c r="A87" s="15" t="s">
         <v>132</v>
       </c>
@@ -2488,7 +2498,7 @@
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="1:3" ht="13.2">
+    <row r="88" spans="1:3" ht="12.75">
       <c r="A88" s="15" t="s">
         <v>134</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.2">
+    <row r="89" spans="1:3" ht="12.75">
       <c r="A89" s="15" t="s">
         <v>136</v>
       </c>
@@ -2510,7 +2520,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13.2">
+    <row r="90" spans="1:3" ht="12.75">
       <c r="A90" s="15" t="s">
         <v>138</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.2">
+    <row r="91" spans="1:3" ht="12.75">
       <c r="A91" s="15" t="s">
         <v>141</v>
       </c>
@@ -2530,7 +2540,7 @@
       </c>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="1:3" ht="13.2">
+    <row r="92" spans="1:3" ht="12.75">
       <c r="A92" s="15" t="s">
         <v>143</v>
       </c>
@@ -2539,7 +2549,7 @@
       </c>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="1:3" ht="13.2">
+    <row r="93" spans="1:3" ht="12.75">
       <c r="A93" s="15" t="s">
         <v>145</v>
       </c>
@@ -2548,7 +2558,7 @@
       </c>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="1:3" ht="13.2">
+    <row r="94" spans="1:3" ht="12.75">
       <c r="A94" s="15" t="s">
         <v>147</v>
       </c>
@@ -2557,7 +2567,7 @@
       </c>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="1:3" ht="26.4">
+    <row r="95" spans="1:3" ht="25.5">
       <c r="A95" s="15" t="s">
         <v>149</v>
       </c>
@@ -2566,7 +2576,7 @@
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:3" ht="13.2">
+    <row r="96" spans="1:3" ht="12.75">
       <c r="A96" s="15" t="s">
         <v>151</v>
       </c>
@@ -2575,7 +2585,7 @@
       </c>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="1:3" ht="13.2">
+    <row r="97" spans="1:3" ht="12.75">
       <c r="A97" s="15" t="s">
         <v>153</v>
       </c>
@@ -2584,7 +2594,7 @@
       </c>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="1:3" ht="13.2">
+    <row r="98" spans="1:3" ht="12.75">
       <c r="A98" s="15" t="s">
         <v>155</v>
       </c>
@@ -2595,7 +2605,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13.2">
+    <row r="99" spans="1:3" ht="12.75">
       <c r="A99" s="15" t="s">
         <v>157</v>
       </c>
@@ -2604,7 +2614,7 @@
       </c>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:3" ht="13.2">
+    <row r="100" spans="1:3" ht="12.75">
       <c r="A100" s="15" t="s">
         <v>159</v>
       </c>
@@ -2613,7 +2623,7 @@
       </c>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="13.2">
+    <row r="101" spans="1:3" ht="12.75">
       <c r="A101" s="15" t="s">
         <v>161</v>
       </c>
@@ -2622,7 +2632,7 @@
       </c>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:3" ht="13.2">
+    <row r="102" spans="1:3" ht="12.75">
       <c r="A102" s="15" t="s">
         <v>163</v>
       </c>
@@ -2631,7 +2641,7 @@
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" ht="13.2">
+    <row r="103" spans="1:3" ht="12.75">
       <c r="A103" s="15" t="s">
         <v>165</v>
       </c>
@@ -2640,7 +2650,7 @@
       </c>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" ht="13.2">
+    <row r="104" spans="1:3" ht="12.75">
       <c r="A104" s="15" t="s">
         <v>167</v>
       </c>
@@ -2649,24 +2659,24 @@
       </c>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" ht="13.2">
+    <row r="105" spans="1:3" ht="12.75">
       <c r="A105" s="5"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="1:3" ht="13.2">
+    <row r="106" spans="1:3" ht="12.75">
       <c r="A106" s="5"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="1:3" ht="13.2">
+    <row r="107" spans="1:3" ht="12.75">
       <c r="A107" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:3" ht="13.2">
+    <row r="108" spans="1:3" ht="12.75">
       <c r="A108" s="15" t="s">
         <v>170</v>
       </c>
@@ -2675,23 +2685,23 @@
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:3" ht="13.2">
+    <row r="109" spans="1:3" ht="12.75">
       <c r="A109" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="40" t="s">
         <v>173</v>
       </c>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:3" ht="13.2">
+    <row r="110" spans="1:3" ht="12.75">
       <c r="A110" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B110" s="40"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:3" ht="13.2">
+    <row r="111" spans="1:3" ht="12.75">
       <c r="A111" s="15" t="s">
         <v>175</v>
       </c>
@@ -2700,7 +2710,7 @@
       </c>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3" ht="13.2">
+    <row r="112" spans="1:3" ht="12.75">
       <c r="A112" s="15" t="s">
         <v>177</v>
       </c>
@@ -2709,7 +2719,7 @@
       </c>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:3" ht="13.2">
+    <row r="113" spans="1:3" ht="12.75">
       <c r="A113" s="15" t="s">
         <v>179</v>
       </c>
@@ -2718,7 +2728,7 @@
       </c>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" ht="13.2">
+    <row r="114" spans="1:3" ht="12.75">
       <c r="A114" s="15" t="s">
         <v>181</v>
       </c>
@@ -2727,24 +2737,24 @@
       </c>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" ht="13.2">
+    <row r="115" spans="1:3" ht="12.75">
       <c r="A115" s="5"/>
       <c r="B115" s="8"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" ht="13.2">
+    <row r="116" spans="1:3" ht="12.75">
       <c r="A116" s="5"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" ht="13.2">
+    <row r="117" spans="1:3" ht="12.75">
       <c r="A117" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:3" ht="13.2">
+    <row r="118" spans="1:3" ht="12.75">
       <c r="A118" s="15" t="s">
         <v>184</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13.2">
+    <row r="119" spans="1:3" ht="12.75">
       <c r="A119" s="15" t="s">
         <v>186</v>
       </c>
@@ -2764,7 +2774,7 @@
       </c>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" ht="13.2">
+    <row r="120" spans="1:3" ht="12.75">
       <c r="A120" s="15" t="s">
         <v>188</v>
       </c>
@@ -2775,7 +2785,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13.2">
+    <row r="121" spans="1:3" ht="12.75">
       <c r="A121" s="15" t="s">
         <v>191</v>
       </c>
@@ -2784,7 +2794,7 @@
       </c>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" ht="26.4">
+    <row r="122" spans="1:3" ht="25.5">
       <c r="A122" s="15" t="s">
         <v>193</v>
       </c>
@@ -2793,7 +2803,7 @@
       </c>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" ht="13.2">
+    <row r="123" spans="1:3" ht="12.75">
       <c r="A123" s="15" t="s">
         <v>195</v>
       </c>
@@ -2802,7 +2812,7 @@
       </c>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" ht="13.2">
+    <row r="124" spans="1:3" ht="12.75">
       <c r="A124" s="15" t="s">
         <v>197</v>
       </c>
@@ -2813,7 +2823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13.2">
+    <row r="125" spans="1:3" ht="12.75">
       <c r="A125" s="15" t="s">
         <v>199</v>
       </c>
@@ -2822,7 +2832,7 @@
       </c>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" ht="13.2">
+    <row r="126" spans="1:3" ht="12.75">
       <c r="A126" s="15" t="s">
         <v>201</v>
       </c>
@@ -2831,7 +2841,7 @@
       </c>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" ht="13.2">
+    <row r="127" spans="1:3" ht="12.75">
       <c r="A127" s="15" t="s">
         <v>203</v>
       </c>
@@ -2840,7 +2850,7 @@
       </c>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" ht="13.2">
+    <row r="128" spans="1:3" ht="12.75">
       <c r="A128" s="15" t="s">
         <v>205</v>
       </c>
@@ -2851,23 +2861,23 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="13.2">
+    <row r="129" spans="1:3" ht="12.75">
       <c r="A129" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B129" s="39" t="s">
+      <c r="B129" s="40" t="s">
         <v>209</v>
       </c>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" ht="13.2">
+    <row r="130" spans="1:3" ht="12.75">
       <c r="A130" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="40"/>
+      <c r="B130" s="41"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" ht="26.4">
+    <row r="131" spans="1:3" ht="25.5">
       <c r="A131" s="15" t="s">
         <v>211</v>
       </c>
@@ -2876,7 +2886,7 @@
       </c>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" ht="13.2">
+    <row r="132" spans="1:3" ht="12.75">
       <c r="A132" s="15" t="s">
         <v>213</v>
       </c>
@@ -2885,7 +2895,7 @@
       </c>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" ht="13.2">
+    <row r="133" spans="1:3" ht="12.75">
       <c r="A133" s="15" t="s">
         <v>215</v>
       </c>
@@ -2894,7 +2904,7 @@
       </c>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" ht="13.2">
+    <row r="134" spans="1:3" ht="12.75">
       <c r="A134" s="15" t="s">
         <v>217</v>
       </c>
@@ -2903,7 +2913,7 @@
       </c>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" ht="13.2">
+    <row r="135" spans="1:3" ht="12.75">
       <c r="A135" s="15" t="s">
         <v>219</v>
       </c>
@@ -2914,7 +2924,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.2">
+    <row r="136" spans="1:3" ht="12.75">
       <c r="A136" s="15" t="s">
         <v>221</v>
       </c>
@@ -2925,7 +2935,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13.2">
+    <row r="137" spans="1:3" ht="12.75">
       <c r="A137" s="15" t="s">
         <v>223</v>
       </c>
@@ -2936,7 +2946,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13.2">
+    <row r="138" spans="1:3" ht="12.75">
       <c r="A138" s="15" t="s">
         <v>224</v>
       </c>
@@ -2947,7 +2957,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13.2">
+    <row r="139" spans="1:3" ht="12.75">
       <c r="A139" s="15" t="s">
         <v>225</v>
       </c>
@@ -2956,7 +2966,7 @@
       </c>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" ht="13.2">
+    <row r="140" spans="1:3" ht="12.75">
       <c r="A140" s="15" t="s">
         <v>227</v>
       </c>
@@ -2965,7 +2975,7 @@
       </c>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" ht="13.2">
+    <row r="141" spans="1:3" ht="12.75">
       <c r="A141" s="15" t="s">
         <v>229</v>
       </c>
@@ -2974,47 +2984,47 @@
       </c>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" ht="13.2">
+    <row r="142" spans="1:3" ht="12.75">
       <c r="A142" s="5"/>
       <c r="B142" s="9"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" ht="13.2">
+    <row r="143" spans="1:3" ht="12.75">
       <c r="A143" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" ht="13.2">
+    <row r="144" spans="1:3" ht="12.75">
       <c r="A144" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B144" s="39"/>
+      <c r="B144" s="40"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" ht="13.2">
+    <row r="145" spans="1:3" ht="12.75">
       <c r="A145" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B145" s="40"/>
+      <c r="B145" s="41"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" ht="13.2">
+    <row r="146" spans="1:3" ht="12.75">
       <c r="A146" s="14"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" ht="13.2">
+    <row r="147" spans="1:3" ht="12.75">
       <c r="B147" s="5"/>
     </row>
-    <row r="148" spans="1:3" ht="13.2">
+    <row r="148" spans="1:3" ht="12.75">
       <c r="A148" t="s">
         <v>343</v>
       </c>
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:3" ht="13.2">
+    <row r="149" spans="1:3" ht="12.75">
       <c r="A149" s="25" t="s">
         <v>345</v>
       </c>
@@ -3022,7 +3032,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="26.4">
+    <row r="150" spans="1:3" ht="25.5">
       <c r="A150" s="25" t="s">
         <v>347</v>
       </c>
@@ -3030,7 +3040,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13.2">
+    <row r="151" spans="1:3" ht="12.75">
       <c r="A151" s="25" t="s">
         <v>350</v>
       </c>
@@ -3041,10 +3051,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13.2">
+    <row r="152" spans="1:3" ht="12.75">
       <c r="B152" s="5"/>
     </row>
-    <row r="153" spans="1:3" ht="13.2">
+    <row r="153" spans="1:3" ht="12.75">
       <c r="A153" s="25" t="s">
         <v>357</v>
       </c>
@@ -3052,16 +3062,16 @@
         <v>356</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13.2">
+    <row r="154" spans="1:3" ht="12.75">
       <c r="B154" s="30"/>
     </row>
-    <row r="155" spans="1:3" ht="13.2">
+    <row r="155" spans="1:3" ht="12.75">
       <c r="A155" s="26" t="s">
         <v>351</v>
       </c>
       <c r="B155" s="5"/>
     </row>
-    <row r="156" spans="1:3" ht="13.2">
+    <row r="156" spans="1:3" ht="12.75">
       <c r="A156" s="25" t="s">
         <v>353</v>
       </c>
@@ -3069,7 +3079,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13.2">
+    <row r="157" spans="1:3" ht="12.75">
       <c r="A157" s="25" t="s">
         <v>352</v>
       </c>
@@ -3077,2347 +3087,2347 @@
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="13.2">
+    <row r="158" spans="1:3" ht="12.75">
       <c r="B158" s="5"/>
     </row>
-    <row r="159" spans="1:3" ht="13.2">
+    <row r="159" spans="1:3" ht="12.75">
       <c r="B159" s="5"/>
     </row>
-    <row r="160" spans="1:3" ht="13.2">
+    <row r="160" spans="1:3" ht="12.75">
       <c r="B160" s="5"/>
     </row>
-    <row r="161" spans="2:2" ht="13.2">
+    <row r="161" spans="2:2" ht="12.75">
       <c r="B161" s="5"/>
     </row>
-    <row r="162" spans="2:2" ht="13.2">
+    <row r="162" spans="2:2" ht="12.75">
       <c r="B162" s="5"/>
     </row>
-    <row r="163" spans="2:2" ht="13.2">
+    <row r="163" spans="2:2" ht="12.75">
       <c r="B163" s="5"/>
     </row>
-    <row r="164" spans="2:2" ht="13.2">
+    <row r="164" spans="2:2" ht="12.75">
       <c r="B164" s="5"/>
     </row>
-    <row r="165" spans="2:2" ht="13.2">
+    <row r="165" spans="2:2" ht="12.75">
       <c r="B165" s="5"/>
     </row>
-    <row r="166" spans="2:2" ht="13.2">
+    <row r="166" spans="2:2" ht="12.75">
       <c r="B166" s="5"/>
     </row>
-    <row r="167" spans="2:2" ht="13.2">
+    <row r="167" spans="2:2" ht="12.75">
       <c r="B167" s="5"/>
     </row>
-    <row r="168" spans="2:2" ht="13.2">
+    <row r="168" spans="2:2" ht="12.75">
       <c r="B168" s="5"/>
     </row>
-    <row r="169" spans="2:2" ht="13.2">
+    <row r="169" spans="2:2" ht="12.75">
       <c r="B169" s="5"/>
     </row>
-    <row r="170" spans="2:2" ht="13.2">
+    <row r="170" spans="2:2" ht="12.75">
       <c r="B170" s="5"/>
     </row>
-    <row r="171" spans="2:2" ht="13.2">
+    <row r="171" spans="2:2" ht="12.75">
       <c r="B171" s="5"/>
     </row>
-    <row r="172" spans="2:2" ht="13.2">
+    <row r="172" spans="2:2" ht="12.75">
       <c r="B172" s="5"/>
     </row>
-    <row r="173" spans="2:2" ht="13.2">
+    <row r="173" spans="2:2" ht="12.75">
       <c r="B173" s="5"/>
     </row>
-    <row r="174" spans="2:2" ht="13.2">
+    <row r="174" spans="2:2" ht="12.75">
       <c r="B174" s="5"/>
     </row>
-    <row r="175" spans="2:2" ht="13.2">
+    <row r="175" spans="2:2" ht="12.75">
       <c r="B175" s="5"/>
     </row>
-    <row r="176" spans="2:2" ht="13.2">
+    <row r="176" spans="2:2" ht="12.75">
       <c r="B176" s="5"/>
     </row>
-    <row r="177" spans="2:2" ht="13.2">
+    <row r="177" spans="2:2" ht="12.75">
       <c r="B177" s="5"/>
     </row>
-    <row r="178" spans="2:2" ht="13.2">
+    <row r="178" spans="2:2" ht="12.75">
       <c r="B178" s="5"/>
     </row>
-    <row r="179" spans="2:2" ht="13.2">
+    <row r="179" spans="2:2" ht="12.75">
       <c r="B179" s="5"/>
     </row>
-    <row r="180" spans="2:2" ht="13.2">
+    <row r="180" spans="2:2" ht="12.75">
       <c r="B180" s="5"/>
     </row>
-    <row r="181" spans="2:2" ht="13.2">
+    <row r="181" spans="2:2" ht="12.75">
       <c r="B181" s="5"/>
     </row>
-    <row r="182" spans="2:2" ht="13.2">
+    <row r="182" spans="2:2" ht="12.75">
       <c r="B182" s="5"/>
     </row>
-    <row r="183" spans="2:2" ht="13.2">
+    <row r="183" spans="2:2" ht="12.75">
       <c r="B183" s="5"/>
     </row>
-    <row r="184" spans="2:2" ht="13.2">
+    <row r="184" spans="2:2" ht="12.75">
       <c r="B184" s="5"/>
     </row>
-    <row r="185" spans="2:2" ht="13.2">
+    <row r="185" spans="2:2" ht="12.75">
       <c r="B185" s="5"/>
     </row>
-    <row r="186" spans="2:2" ht="13.2">
+    <row r="186" spans="2:2" ht="12.75">
       <c r="B186" s="5"/>
     </row>
-    <row r="187" spans="2:2" ht="13.2">
+    <row r="187" spans="2:2" ht="12.75">
       <c r="B187" s="5"/>
     </row>
-    <row r="188" spans="2:2" ht="13.2">
+    <row r="188" spans="2:2" ht="12.75">
       <c r="B188" s="5"/>
     </row>
-    <row r="189" spans="2:2" ht="13.2">
+    <row r="189" spans="2:2" ht="12.75">
       <c r="B189" s="5"/>
     </row>
-    <row r="190" spans="2:2" ht="13.2">
+    <row r="190" spans="2:2" ht="12.75">
       <c r="B190" s="5"/>
     </row>
-    <row r="191" spans="2:2" ht="13.2">
+    <row r="191" spans="2:2" ht="12.75">
       <c r="B191" s="5"/>
     </row>
-    <row r="192" spans="2:2" ht="13.2">
+    <row r="192" spans="2:2" ht="12.75">
       <c r="B192" s="5"/>
     </row>
-    <row r="193" spans="2:2" ht="13.2">
+    <row r="193" spans="2:2" ht="12.75">
       <c r="B193" s="5"/>
     </row>
-    <row r="194" spans="2:2" ht="13.2">
+    <row r="194" spans="2:2" ht="12.75">
       <c r="B194" s="5"/>
     </row>
-    <row r="195" spans="2:2" ht="13.2">
+    <row r="195" spans="2:2" ht="12.75">
       <c r="B195" s="5"/>
     </row>
-    <row r="196" spans="2:2" ht="13.2">
+    <row r="196" spans="2:2" ht="12.75">
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="2:2" ht="13.2">
+    <row r="197" spans="2:2" ht="12.75">
       <c r="B197" s="5"/>
     </row>
-    <row r="198" spans="2:2" ht="13.2">
+    <row r="198" spans="2:2" ht="12.75">
       <c r="B198" s="5"/>
     </row>
-    <row r="199" spans="2:2" ht="13.2">
+    <row r="199" spans="2:2" ht="12.75">
       <c r="B199" s="5"/>
     </row>
-    <row r="200" spans="2:2" ht="13.2">
+    <row r="200" spans="2:2" ht="12.75">
       <c r="B200" s="5"/>
     </row>
-    <row r="201" spans="2:2" ht="13.2">
+    <row r="201" spans="2:2" ht="12.75">
       <c r="B201" s="5"/>
     </row>
-    <row r="202" spans="2:2" ht="13.2">
+    <row r="202" spans="2:2" ht="12.75">
       <c r="B202" s="5"/>
     </row>
-    <row r="203" spans="2:2" ht="13.2">
+    <row r="203" spans="2:2" ht="12.75">
       <c r="B203" s="5"/>
     </row>
-    <row r="204" spans="2:2" ht="13.2">
+    <row r="204" spans="2:2" ht="12.75">
       <c r="B204" s="5"/>
     </row>
-    <row r="205" spans="2:2" ht="13.2">
+    <row r="205" spans="2:2" ht="12.75">
       <c r="B205" s="5"/>
     </row>
-    <row r="206" spans="2:2" ht="13.2">
+    <row r="206" spans="2:2" ht="12.75">
       <c r="B206" s="5"/>
     </row>
-    <row r="207" spans="2:2" ht="13.2">
+    <row r="207" spans="2:2" ht="12.75">
       <c r="B207" s="5"/>
     </row>
-    <row r="208" spans="2:2" ht="13.2">
+    <row r="208" spans="2:2" ht="12.75">
       <c r="B208" s="5"/>
     </row>
-    <row r="209" spans="2:2" ht="13.2">
+    <row r="209" spans="2:2" ht="12.75">
       <c r="B209" s="5"/>
     </row>
-    <row r="210" spans="2:2" ht="13.2">
+    <row r="210" spans="2:2" ht="12.75">
       <c r="B210" s="5"/>
     </row>
-    <row r="211" spans="2:2" ht="13.2">
+    <row r="211" spans="2:2" ht="12.75">
       <c r="B211" s="5"/>
     </row>
-    <row r="212" spans="2:2" ht="13.2">
+    <row r="212" spans="2:2" ht="12.75">
       <c r="B212" s="5"/>
     </row>
-    <row r="213" spans="2:2" ht="13.2">
+    <row r="213" spans="2:2" ht="12.75">
       <c r="B213" s="5"/>
     </row>
-    <row r="214" spans="2:2" ht="13.2">
+    <row r="214" spans="2:2" ht="12.75">
       <c r="B214" s="5"/>
     </row>
-    <row r="215" spans="2:2" ht="13.2">
+    <row r="215" spans="2:2" ht="12.75">
       <c r="B215" s="5"/>
     </row>
-    <row r="216" spans="2:2" ht="13.2">
+    <row r="216" spans="2:2" ht="12.75">
       <c r="B216" s="5"/>
     </row>
-    <row r="217" spans="2:2" ht="13.2">
+    <row r="217" spans="2:2" ht="12.75">
       <c r="B217" s="5"/>
     </row>
-    <row r="218" spans="2:2" ht="13.2">
+    <row r="218" spans="2:2" ht="12.75">
       <c r="B218" s="5"/>
     </row>
-    <row r="219" spans="2:2" ht="13.2">
+    <row r="219" spans="2:2" ht="12.75">
       <c r="B219" s="5"/>
     </row>
-    <row r="220" spans="2:2" ht="13.2">
+    <row r="220" spans="2:2" ht="12.75">
       <c r="B220" s="5"/>
     </row>
-    <row r="221" spans="2:2" ht="13.2">
+    <row r="221" spans="2:2" ht="12.75">
       <c r="B221" s="5"/>
     </row>
-    <row r="222" spans="2:2" ht="13.2">
+    <row r="222" spans="2:2" ht="12.75">
       <c r="B222" s="5"/>
     </row>
-    <row r="223" spans="2:2" ht="13.2">
+    <row r="223" spans="2:2" ht="12.75">
       <c r="B223" s="5"/>
     </row>
-    <row r="224" spans="2:2" ht="13.2">
+    <row r="224" spans="2:2" ht="12.75">
       <c r="B224" s="5"/>
     </row>
-    <row r="225" spans="2:2" ht="13.2">
+    <row r="225" spans="2:2" ht="12.75">
       <c r="B225" s="5"/>
     </row>
-    <row r="226" spans="2:2" ht="13.2">
+    <row r="226" spans="2:2" ht="12.75">
       <c r="B226" s="5"/>
     </row>
-    <row r="227" spans="2:2" ht="13.2">
+    <row r="227" spans="2:2" ht="12.75">
       <c r="B227" s="5"/>
     </row>
-    <row r="228" spans="2:2" ht="13.2">
+    <row r="228" spans="2:2" ht="12.75">
       <c r="B228" s="5"/>
     </row>
-    <row r="229" spans="2:2" ht="13.2">
+    <row r="229" spans="2:2" ht="12.75">
       <c r="B229" s="5"/>
     </row>
-    <row r="230" spans="2:2" ht="13.2">
+    <row r="230" spans="2:2" ht="12.75">
       <c r="B230" s="5"/>
     </row>
-    <row r="231" spans="2:2" ht="13.2">
+    <row r="231" spans="2:2" ht="12.75">
       <c r="B231" s="5"/>
     </row>
-    <row r="232" spans="2:2" ht="13.2">
+    <row r="232" spans="2:2" ht="12.75">
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="2:2" ht="13.2">
+    <row r="233" spans="2:2" ht="12.75">
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="2:2" ht="13.2">
+    <row r="234" spans="2:2" ht="12.75">
       <c r="B234" s="5"/>
     </row>
-    <row r="235" spans="2:2" ht="13.2">
+    <row r="235" spans="2:2" ht="12.75">
       <c r="B235" s="5"/>
     </row>
-    <row r="236" spans="2:2" ht="13.2">
+    <row r="236" spans="2:2" ht="12.75">
       <c r="B236" s="5"/>
     </row>
-    <row r="237" spans="2:2" ht="13.2">
+    <row r="237" spans="2:2" ht="12.75">
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="2:2" ht="13.2">
+    <row r="238" spans="2:2" ht="12.75">
       <c r="B238" s="5"/>
     </row>
-    <row r="239" spans="2:2" ht="13.2">
+    <row r="239" spans="2:2" ht="12.75">
       <c r="B239" s="5"/>
     </row>
-    <row r="240" spans="2:2" ht="13.2">
+    <row r="240" spans="2:2" ht="12.75">
       <c r="B240" s="5"/>
     </row>
-    <row r="241" spans="2:2" ht="13.2">
+    <row r="241" spans="2:2" ht="12.75">
       <c r="B241" s="5"/>
     </row>
-    <row r="242" spans="2:2" ht="13.2">
+    <row r="242" spans="2:2" ht="12.75">
       <c r="B242" s="5"/>
     </row>
-    <row r="243" spans="2:2" ht="13.2">
+    <row r="243" spans="2:2" ht="12.75">
       <c r="B243" s="5"/>
     </row>
-    <row r="244" spans="2:2" ht="13.2">
+    <row r="244" spans="2:2" ht="12.75">
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="2:2" ht="13.2">
+    <row r="245" spans="2:2" ht="12.75">
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="2:2" ht="13.2">
+    <row r="246" spans="2:2" ht="12.75">
       <c r="B246" s="5"/>
     </row>
-    <row r="247" spans="2:2" ht="13.2">
+    <row r="247" spans="2:2" ht="12.75">
       <c r="B247" s="5"/>
     </row>
-    <row r="248" spans="2:2" ht="13.2">
+    <row r="248" spans="2:2" ht="12.75">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="2:2" ht="13.2">
+    <row r="249" spans="2:2" ht="12.75">
       <c r="B249" s="5"/>
     </row>
-    <row r="250" spans="2:2" ht="13.2">
+    <row r="250" spans="2:2" ht="12.75">
       <c r="B250" s="5"/>
     </row>
-    <row r="251" spans="2:2" ht="13.2">
+    <row r="251" spans="2:2" ht="12.75">
       <c r="B251" s="5"/>
     </row>
-    <row r="252" spans="2:2" ht="13.2">
+    <row r="252" spans="2:2" ht="12.75">
       <c r="B252" s="5"/>
     </row>
-    <row r="253" spans="2:2" ht="13.2">
+    <row r="253" spans="2:2" ht="12.75">
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="2:2" ht="13.2">
+    <row r="254" spans="2:2" ht="12.75">
       <c r="B254" s="5"/>
     </row>
-    <row r="255" spans="2:2" ht="13.2">
+    <row r="255" spans="2:2" ht="12.75">
       <c r="B255" s="5"/>
     </row>
-    <row r="256" spans="2:2" ht="13.2">
+    <row r="256" spans="2:2" ht="12.75">
       <c r="B256" s="5"/>
     </row>
-    <row r="257" spans="2:2" ht="13.2">
+    <row r="257" spans="2:2" ht="12.75">
       <c r="B257" s="5"/>
     </row>
-    <row r="258" spans="2:2" ht="13.2">
+    <row r="258" spans="2:2" ht="12.75">
       <c r="B258" s="5"/>
     </row>
-    <row r="259" spans="2:2" ht="13.2">
+    <row r="259" spans="2:2" ht="12.75">
       <c r="B259" s="5"/>
     </row>
-    <row r="260" spans="2:2" ht="13.2">
+    <row r="260" spans="2:2" ht="12.75">
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="2:2" ht="13.2">
+    <row r="261" spans="2:2" ht="12.75">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="2:2" ht="13.2">
+    <row r="262" spans="2:2" ht="12.75">
       <c r="B262" s="5"/>
     </row>
-    <row r="263" spans="2:2" ht="13.2">
+    <row r="263" spans="2:2" ht="12.75">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="2:2" ht="13.2">
+    <row r="264" spans="2:2" ht="12.75">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="2:2" ht="13.2">
+    <row r="265" spans="2:2" ht="12.75">
       <c r="B265" s="5"/>
     </row>
-    <row r="266" spans="2:2" ht="13.2">
+    <row r="266" spans="2:2" ht="12.75">
       <c r="B266" s="5"/>
     </row>
-    <row r="267" spans="2:2" ht="13.2">
+    <row r="267" spans="2:2" ht="12.75">
       <c r="B267" s="5"/>
     </row>
-    <row r="268" spans="2:2" ht="13.2">
+    <row r="268" spans="2:2" ht="12.75">
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="2:2" ht="13.2">
+    <row r="269" spans="2:2" ht="12.75">
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="2:2" ht="13.2">
+    <row r="270" spans="2:2" ht="12.75">
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="2:2" ht="13.2">
+    <row r="271" spans="2:2" ht="12.75">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="2:2" ht="13.2">
+    <row r="272" spans="2:2" ht="12.75">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="2:2" ht="13.2">
+    <row r="273" spans="2:2" ht="12.75">
       <c r="B273" s="5"/>
     </row>
-    <row r="274" spans="2:2" ht="13.2">
+    <row r="274" spans="2:2" ht="12.75">
       <c r="B274" s="5"/>
     </row>
-    <row r="275" spans="2:2" ht="13.2">
+    <row r="275" spans="2:2" ht="12.75">
       <c r="B275" s="5"/>
     </row>
-    <row r="276" spans="2:2" ht="13.2">
+    <row r="276" spans="2:2" ht="12.75">
       <c r="B276" s="5"/>
     </row>
-    <row r="277" spans="2:2" ht="13.2">
+    <row r="277" spans="2:2" ht="12.75">
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="2:2" ht="13.2">
+    <row r="278" spans="2:2" ht="12.75">
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="2:2" ht="13.2">
+    <row r="279" spans="2:2" ht="12.75">
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="2:2" ht="13.2">
+    <row r="280" spans="2:2" ht="12.75">
       <c r="B280" s="5"/>
     </row>
-    <row r="281" spans="2:2" ht="13.2">
+    <row r="281" spans="2:2" ht="12.75">
       <c r="B281" s="5"/>
     </row>
-    <row r="282" spans="2:2" ht="13.2">
+    <row r="282" spans="2:2" ht="12.75">
       <c r="B282" s="5"/>
     </row>
-    <row r="283" spans="2:2" ht="13.2">
+    <row r="283" spans="2:2" ht="12.75">
       <c r="B283" s="5"/>
     </row>
-    <row r="284" spans="2:2" ht="13.2">
+    <row r="284" spans="2:2" ht="12.75">
       <c r="B284" s="5"/>
     </row>
-    <row r="285" spans="2:2" ht="13.2">
+    <row r="285" spans="2:2" ht="12.75">
       <c r="B285" s="5"/>
     </row>
-    <row r="286" spans="2:2" ht="13.2">
+    <row r="286" spans="2:2" ht="12.75">
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="2:2" ht="13.2">
+    <row r="287" spans="2:2" ht="12.75">
       <c r="B287" s="5"/>
     </row>
-    <row r="288" spans="2:2" ht="13.2">
+    <row r="288" spans="2:2" ht="12.75">
       <c r="B288" s="5"/>
     </row>
-    <row r="289" spans="2:2" ht="13.2">
+    <row r="289" spans="2:2" ht="12.75">
       <c r="B289" s="5"/>
     </row>
-    <row r="290" spans="2:2" ht="13.2">
+    <row r="290" spans="2:2" ht="12.75">
       <c r="B290" s="5"/>
     </row>
-    <row r="291" spans="2:2" ht="13.2">
+    <row r="291" spans="2:2" ht="12.75">
       <c r="B291" s="5"/>
     </row>
-    <row r="292" spans="2:2" ht="13.2">
+    <row r="292" spans="2:2" ht="12.75">
       <c r="B292" s="5"/>
     </row>
-    <row r="293" spans="2:2" ht="13.2">
+    <row r="293" spans="2:2" ht="12.75">
       <c r="B293" s="5"/>
     </row>
-    <row r="294" spans="2:2" ht="13.2">
+    <row r="294" spans="2:2" ht="12.75">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="2:2" ht="13.2">
+    <row r="295" spans="2:2" ht="12.75">
       <c r="B295" s="5"/>
     </row>
-    <row r="296" spans="2:2" ht="13.2">
+    <row r="296" spans="2:2" ht="12.75">
       <c r="B296" s="5"/>
     </row>
-    <row r="297" spans="2:2" ht="13.2">
+    <row r="297" spans="2:2" ht="12.75">
       <c r="B297" s="5"/>
     </row>
-    <row r="298" spans="2:2" ht="13.2">
+    <row r="298" spans="2:2" ht="12.75">
       <c r="B298" s="5"/>
     </row>
-    <row r="299" spans="2:2" ht="13.2">
+    <row r="299" spans="2:2" ht="12.75">
       <c r="B299" s="5"/>
     </row>
-    <row r="300" spans="2:2" ht="13.2">
+    <row r="300" spans="2:2" ht="12.75">
       <c r="B300" s="5"/>
     </row>
-    <row r="301" spans="2:2" ht="13.2">
+    <row r="301" spans="2:2" ht="12.75">
       <c r="B301" s="5"/>
     </row>
-    <row r="302" spans="2:2" ht="13.2">
+    <row r="302" spans="2:2" ht="12.75">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="2:2" ht="13.2">
+    <row r="303" spans="2:2" ht="12.75">
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="2:2" ht="13.2">
+    <row r="304" spans="2:2" ht="12.75">
       <c r="B304" s="5"/>
     </row>
-    <row r="305" spans="2:2" ht="13.2">
+    <row r="305" spans="2:2" ht="12.75">
       <c r="B305" s="5"/>
     </row>
-    <row r="306" spans="2:2" ht="13.2">
+    <row r="306" spans="2:2" ht="12.75">
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="2:2" ht="13.2">
+    <row r="307" spans="2:2" ht="12.75">
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="2:2" ht="13.2">
+    <row r="308" spans="2:2" ht="12.75">
       <c r="B308" s="5"/>
     </row>
-    <row r="309" spans="2:2" ht="13.2">
+    <row r="309" spans="2:2" ht="12.75">
       <c r="B309" s="5"/>
     </row>
-    <row r="310" spans="2:2" ht="13.2">
+    <row r="310" spans="2:2" ht="12.75">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="2:2" ht="13.2">
+    <row r="311" spans="2:2" ht="12.75">
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="2:2" ht="13.2">
+    <row r="312" spans="2:2" ht="12.75">
       <c r="B312" s="5"/>
     </row>
-    <row r="313" spans="2:2" ht="13.2">
+    <row r="313" spans="2:2" ht="12.75">
       <c r="B313" s="5"/>
     </row>
-    <row r="314" spans="2:2" ht="13.2">
+    <row r="314" spans="2:2" ht="12.75">
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="2:2" ht="13.2">
+    <row r="315" spans="2:2" ht="12.75">
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="2:2" ht="13.2">
+    <row r="316" spans="2:2" ht="12.75">
       <c r="B316" s="5"/>
     </row>
-    <row r="317" spans="2:2" ht="13.2">
+    <row r="317" spans="2:2" ht="12.75">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="2:2" ht="13.2">
+    <row r="318" spans="2:2" ht="12.75">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="2:2" ht="13.2">
+    <row r="319" spans="2:2" ht="12.75">
       <c r="B319" s="5"/>
     </row>
-    <row r="320" spans="2:2" ht="13.2">
+    <row r="320" spans="2:2" ht="12.75">
       <c r="B320" s="5"/>
     </row>
-    <row r="321" spans="2:2" ht="13.2">
+    <row r="321" spans="2:2" ht="12.75">
       <c r="B321" s="5"/>
     </row>
-    <row r="322" spans="2:2" ht="13.2">
+    <row r="322" spans="2:2" ht="12.75">
       <c r="B322" s="5"/>
     </row>
-    <row r="323" spans="2:2" ht="13.2">
+    <row r="323" spans="2:2" ht="12.75">
       <c r="B323" s="5"/>
     </row>
-    <row r="324" spans="2:2" ht="13.2">
+    <row r="324" spans="2:2" ht="12.75">
       <c r="B324" s="5"/>
     </row>
-    <row r="325" spans="2:2" ht="13.2">
+    <row r="325" spans="2:2" ht="12.75">
       <c r="B325" s="5"/>
     </row>
-    <row r="326" spans="2:2" ht="13.2">
+    <row r="326" spans="2:2" ht="12.75">
       <c r="B326" s="5"/>
     </row>
-    <row r="327" spans="2:2" ht="13.2">
+    <row r="327" spans="2:2" ht="12.75">
       <c r="B327" s="5"/>
     </row>
-    <row r="328" spans="2:2" ht="13.2">
+    <row r="328" spans="2:2" ht="12.75">
       <c r="B328" s="5"/>
     </row>
-    <row r="329" spans="2:2" ht="13.2">
+    <row r="329" spans="2:2" ht="12.75">
       <c r="B329" s="5"/>
     </row>
-    <row r="330" spans="2:2" ht="13.2">
+    <row r="330" spans="2:2" ht="12.75">
       <c r="B330" s="5"/>
     </row>
-    <row r="331" spans="2:2" ht="13.2">
+    <row r="331" spans="2:2" ht="12.75">
       <c r="B331" s="5"/>
     </row>
-    <row r="332" spans="2:2" ht="13.2">
+    <row r="332" spans="2:2" ht="12.75">
       <c r="B332" s="5"/>
     </row>
-    <row r="333" spans="2:2" ht="13.2">
+    <row r="333" spans="2:2" ht="12.75">
       <c r="B333" s="5"/>
     </row>
-    <row r="334" spans="2:2" ht="13.2">
+    <row r="334" spans="2:2" ht="12.75">
       <c r="B334" s="5"/>
     </row>
-    <row r="335" spans="2:2" ht="13.2">
+    <row r="335" spans="2:2" ht="12.75">
       <c r="B335" s="5"/>
     </row>
-    <row r="336" spans="2:2" ht="13.2">
+    <row r="336" spans="2:2" ht="12.75">
       <c r="B336" s="5"/>
     </row>
-    <row r="337" spans="2:2" ht="13.2">
+    <row r="337" spans="2:2" ht="12.75">
       <c r="B337" s="5"/>
     </row>
-    <row r="338" spans="2:2" ht="13.2">
+    <row r="338" spans="2:2" ht="12.75">
       <c r="B338" s="5"/>
     </row>
-    <row r="339" spans="2:2" ht="13.2">
+    <row r="339" spans="2:2" ht="12.75">
       <c r="B339" s="5"/>
     </row>
-    <row r="340" spans="2:2" ht="13.2">
+    <row r="340" spans="2:2" ht="12.75">
       <c r="B340" s="5"/>
     </row>
-    <row r="341" spans="2:2" ht="13.2">
+    <row r="341" spans="2:2" ht="12.75">
       <c r="B341" s="5"/>
     </row>
-    <row r="342" spans="2:2" ht="13.2">
+    <row r="342" spans="2:2" ht="12.75">
       <c r="B342" s="5"/>
     </row>
-    <row r="343" spans="2:2" ht="13.2">
+    <row r="343" spans="2:2" ht="12.75">
       <c r="B343" s="5"/>
     </row>
-    <row r="344" spans="2:2" ht="13.2">
+    <row r="344" spans="2:2" ht="12.75">
       <c r="B344" s="5"/>
     </row>
-    <row r="345" spans="2:2" ht="13.2">
+    <row r="345" spans="2:2" ht="12.75">
       <c r="B345" s="5"/>
     </row>
-    <row r="346" spans="2:2" ht="13.2">
+    <row r="346" spans="2:2" ht="12.75">
       <c r="B346" s="5"/>
     </row>
-    <row r="347" spans="2:2" ht="13.2">
+    <row r="347" spans="2:2" ht="12.75">
       <c r="B347" s="5"/>
     </row>
-    <row r="348" spans="2:2" ht="13.2">
+    <row r="348" spans="2:2" ht="12.75">
       <c r="B348" s="5"/>
     </row>
-    <row r="349" spans="2:2" ht="13.2">
+    <row r="349" spans="2:2" ht="12.75">
       <c r="B349" s="5"/>
     </row>
-    <row r="350" spans="2:2" ht="13.2">
+    <row r="350" spans="2:2" ht="12.75">
       <c r="B350" s="5"/>
     </row>
-    <row r="351" spans="2:2" ht="13.2">
+    <row r="351" spans="2:2" ht="12.75">
       <c r="B351" s="5"/>
     </row>
-    <row r="352" spans="2:2" ht="13.2">
+    <row r="352" spans="2:2" ht="12.75">
       <c r="B352" s="5"/>
     </row>
-    <row r="353" spans="2:2" ht="13.2">
+    <row r="353" spans="2:2" ht="12.75">
       <c r="B353" s="5"/>
     </row>
-    <row r="354" spans="2:2" ht="13.2">
+    <row r="354" spans="2:2" ht="12.75">
       <c r="B354" s="5"/>
     </row>
-    <row r="355" spans="2:2" ht="13.2">
+    <row r="355" spans="2:2" ht="12.75">
       <c r="B355" s="5"/>
     </row>
-    <row r="356" spans="2:2" ht="13.2">
+    <row r="356" spans="2:2" ht="12.75">
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="2:2" ht="13.2">
+    <row r="357" spans="2:2" ht="12.75">
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="2:2" ht="13.2">
+    <row r="358" spans="2:2" ht="12.75">
       <c r="B358" s="5"/>
     </row>
-    <row r="359" spans="2:2" ht="13.2">
+    <row r="359" spans="2:2" ht="12.75">
       <c r="B359" s="5"/>
     </row>
-    <row r="360" spans="2:2" ht="13.2">
+    <row r="360" spans="2:2" ht="12.75">
       <c r="B360" s="5"/>
     </row>
-    <row r="361" spans="2:2" ht="13.2">
+    <row r="361" spans="2:2" ht="12.75">
       <c r="B361" s="5"/>
     </row>
-    <row r="362" spans="2:2" ht="13.2">
+    <row r="362" spans="2:2" ht="12.75">
       <c r="B362" s="5"/>
     </row>
-    <row r="363" spans="2:2" ht="13.2">
+    <row r="363" spans="2:2" ht="12.75">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="2:2" ht="13.2">
+    <row r="364" spans="2:2" ht="12.75">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="2:2" ht="13.2">
+    <row r="365" spans="2:2" ht="12.75">
       <c r="B365" s="5"/>
     </row>
-    <row r="366" spans="2:2" ht="13.2">
+    <row r="366" spans="2:2" ht="12.75">
       <c r="B366" s="5"/>
     </row>
-    <row r="367" spans="2:2" ht="13.2">
+    <row r="367" spans="2:2" ht="12.75">
       <c r="B367" s="5"/>
     </row>
-    <row r="368" spans="2:2" ht="13.2">
+    <row r="368" spans="2:2" ht="12.75">
       <c r="B368" s="5"/>
     </row>
-    <row r="369" spans="2:2" ht="13.2">
+    <row r="369" spans="2:2" ht="12.75">
       <c r="B369" s="5"/>
     </row>
-    <row r="370" spans="2:2" ht="13.2">
+    <row r="370" spans="2:2" ht="12.75">
       <c r="B370" s="5"/>
     </row>
-    <row r="371" spans="2:2" ht="13.2">
+    <row r="371" spans="2:2" ht="12.75">
       <c r="B371" s="5"/>
     </row>
-    <row r="372" spans="2:2" ht="13.2">
+    <row r="372" spans="2:2" ht="12.75">
       <c r="B372" s="5"/>
     </row>
-    <row r="373" spans="2:2" ht="13.2">
+    <row r="373" spans="2:2" ht="12.75">
       <c r="B373" s="5"/>
     </row>
-    <row r="374" spans="2:2" ht="13.2">
+    <row r="374" spans="2:2" ht="12.75">
       <c r="B374" s="5"/>
     </row>
-    <row r="375" spans="2:2" ht="13.2">
+    <row r="375" spans="2:2" ht="12.75">
       <c r="B375" s="5"/>
     </row>
-    <row r="376" spans="2:2" ht="13.2">
+    <row r="376" spans="2:2" ht="12.75">
       <c r="B376" s="5"/>
     </row>
-    <row r="377" spans="2:2" ht="13.2">
+    <row r="377" spans="2:2" ht="12.75">
       <c r="B377" s="5"/>
     </row>
-    <row r="378" spans="2:2" ht="13.2">
+    <row r="378" spans="2:2" ht="12.75">
       <c r="B378" s="5"/>
     </row>
-    <row r="379" spans="2:2" ht="13.2">
+    <row r="379" spans="2:2" ht="12.75">
       <c r="B379" s="5"/>
     </row>
-    <row r="380" spans="2:2" ht="13.2">
+    <row r="380" spans="2:2" ht="12.75">
       <c r="B380" s="5"/>
     </row>
-    <row r="381" spans="2:2" ht="13.2">
+    <row r="381" spans="2:2" ht="12.75">
       <c r="B381" s="5"/>
     </row>
-    <row r="382" spans="2:2" ht="13.2">
+    <row r="382" spans="2:2" ht="12.75">
       <c r="B382" s="5"/>
     </row>
-    <row r="383" spans="2:2" ht="13.2">
+    <row r="383" spans="2:2" ht="12.75">
       <c r="B383" s="5"/>
     </row>
-    <row r="384" spans="2:2" ht="13.2">
+    <row r="384" spans="2:2" ht="12.75">
       <c r="B384" s="5"/>
     </row>
-    <row r="385" spans="2:2" ht="13.2">
+    <row r="385" spans="2:2" ht="12.75">
       <c r="B385" s="5"/>
     </row>
-    <row r="386" spans="2:2" ht="13.2">
+    <row r="386" spans="2:2" ht="12.75">
       <c r="B386" s="5"/>
     </row>
-    <row r="387" spans="2:2" ht="13.2">
+    <row r="387" spans="2:2" ht="12.75">
       <c r="B387" s="5"/>
     </row>
-    <row r="388" spans="2:2" ht="13.2">
+    <row r="388" spans="2:2" ht="12.75">
       <c r="B388" s="5"/>
     </row>
-    <row r="389" spans="2:2" ht="13.2">
+    <row r="389" spans="2:2" ht="12.75">
       <c r="B389" s="5"/>
     </row>
-    <row r="390" spans="2:2" ht="13.2">
+    <row r="390" spans="2:2" ht="12.75">
       <c r="B390" s="5"/>
     </row>
-    <row r="391" spans="2:2" ht="13.2">
+    <row r="391" spans="2:2" ht="12.75">
       <c r="B391" s="5"/>
     </row>
-    <row r="392" spans="2:2" ht="13.2">
+    <row r="392" spans="2:2" ht="12.75">
       <c r="B392" s="5"/>
     </row>
-    <row r="393" spans="2:2" ht="13.2">
+    <row r="393" spans="2:2" ht="12.75">
       <c r="B393" s="5"/>
     </row>
-    <row r="394" spans="2:2" ht="13.2">
+    <row r="394" spans="2:2" ht="12.75">
       <c r="B394" s="5"/>
     </row>
-    <row r="395" spans="2:2" ht="13.2">
+    <row r="395" spans="2:2" ht="12.75">
       <c r="B395" s="5"/>
     </row>
-    <row r="396" spans="2:2" ht="13.2">
+    <row r="396" spans="2:2" ht="12.75">
       <c r="B396" s="5"/>
     </row>
-    <row r="397" spans="2:2" ht="13.2">
+    <row r="397" spans="2:2" ht="12.75">
       <c r="B397" s="5"/>
     </row>
-    <row r="398" spans="2:2" ht="13.2">
+    <row r="398" spans="2:2" ht="12.75">
       <c r="B398" s="5"/>
     </row>
-    <row r="399" spans="2:2" ht="13.2">
+    <row r="399" spans="2:2" ht="12.75">
       <c r="B399" s="5"/>
     </row>
-    <row r="400" spans="2:2" ht="13.2">
+    <row r="400" spans="2:2" ht="12.75">
       <c r="B400" s="5"/>
     </row>
-    <row r="401" spans="2:2" ht="13.2">
+    <row r="401" spans="2:2" ht="12.75">
       <c r="B401" s="5"/>
     </row>
-    <row r="402" spans="2:2" ht="13.2">
+    <row r="402" spans="2:2" ht="12.75">
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="2:2" ht="13.2">
+    <row r="403" spans="2:2" ht="12.75">
       <c r="B403" s="5"/>
     </row>
-    <row r="404" spans="2:2" ht="13.2">
+    <row r="404" spans="2:2" ht="12.75">
       <c r="B404" s="5"/>
     </row>
-    <row r="405" spans="2:2" ht="13.2">
+    <row r="405" spans="2:2" ht="12.75">
       <c r="B405" s="5"/>
     </row>
-    <row r="406" spans="2:2" ht="13.2">
+    <row r="406" spans="2:2" ht="12.75">
       <c r="B406" s="5"/>
     </row>
-    <row r="407" spans="2:2" ht="13.2">
+    <row r="407" spans="2:2" ht="12.75">
       <c r="B407" s="5"/>
     </row>
-    <row r="408" spans="2:2" ht="13.2">
+    <row r="408" spans="2:2" ht="12.75">
       <c r="B408" s="5"/>
     </row>
-    <row r="409" spans="2:2" ht="13.2">
+    <row r="409" spans="2:2" ht="12.75">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="2:2" ht="13.2">
+    <row r="410" spans="2:2" ht="12.75">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="2:2" ht="13.2">
+    <row r="411" spans="2:2" ht="12.75">
       <c r="B411" s="5"/>
     </row>
-    <row r="412" spans="2:2" ht="13.2">
+    <row r="412" spans="2:2" ht="12.75">
       <c r="B412" s="5"/>
     </row>
-    <row r="413" spans="2:2" ht="13.2">
+    <row r="413" spans="2:2" ht="12.75">
       <c r="B413" s="5"/>
     </row>
-    <row r="414" spans="2:2" ht="13.2">
+    <row r="414" spans="2:2" ht="12.75">
       <c r="B414" s="5"/>
     </row>
-    <row r="415" spans="2:2" ht="13.2">
+    <row r="415" spans="2:2" ht="12.75">
       <c r="B415" s="5"/>
     </row>
-    <row r="416" spans="2:2" ht="13.2">
+    <row r="416" spans="2:2" ht="12.75">
       <c r="B416" s="5"/>
     </row>
-    <row r="417" spans="2:2" ht="13.2">
+    <row r="417" spans="2:2" ht="12.75">
       <c r="B417" s="5"/>
     </row>
-    <row r="418" spans="2:2" ht="13.2">
+    <row r="418" spans="2:2" ht="12.75">
       <c r="B418" s="5"/>
     </row>
-    <row r="419" spans="2:2" ht="13.2">
+    <row r="419" spans="2:2" ht="12.75">
       <c r="B419" s="5"/>
     </row>
-    <row r="420" spans="2:2" ht="13.2">
+    <row r="420" spans="2:2" ht="12.75">
       <c r="B420" s="5"/>
     </row>
-    <row r="421" spans="2:2" ht="13.2">
+    <row r="421" spans="2:2" ht="12.75">
       <c r="B421" s="5"/>
     </row>
-    <row r="422" spans="2:2" ht="13.2">
+    <row r="422" spans="2:2" ht="12.75">
       <c r="B422" s="5"/>
     </row>
-    <row r="423" spans="2:2" ht="13.2">
+    <row r="423" spans="2:2" ht="12.75">
       <c r="B423" s="5"/>
     </row>
-    <row r="424" spans="2:2" ht="13.2">
+    <row r="424" spans="2:2" ht="12.75">
       <c r="B424" s="5"/>
     </row>
-    <row r="425" spans="2:2" ht="13.2">
+    <row r="425" spans="2:2" ht="12.75">
       <c r="B425" s="5"/>
     </row>
-    <row r="426" spans="2:2" ht="13.2">
+    <row r="426" spans="2:2" ht="12.75">
       <c r="B426" s="5"/>
     </row>
-    <row r="427" spans="2:2" ht="13.2">
+    <row r="427" spans="2:2" ht="12.75">
       <c r="B427" s="5"/>
     </row>
-    <row r="428" spans="2:2" ht="13.2">
+    <row r="428" spans="2:2" ht="12.75">
       <c r="B428" s="5"/>
     </row>
-    <row r="429" spans="2:2" ht="13.2">
+    <row r="429" spans="2:2" ht="12.75">
       <c r="B429" s="5"/>
     </row>
-    <row r="430" spans="2:2" ht="13.2">
+    <row r="430" spans="2:2" ht="12.75">
       <c r="B430" s="5"/>
     </row>
-    <row r="431" spans="2:2" ht="13.2">
+    <row r="431" spans="2:2" ht="12.75">
       <c r="B431" s="5"/>
     </row>
-    <row r="432" spans="2:2" ht="13.2">
+    <row r="432" spans="2:2" ht="12.75">
       <c r="B432" s="5"/>
     </row>
-    <row r="433" spans="2:2" ht="13.2">
+    <row r="433" spans="2:2" ht="12.75">
       <c r="B433" s="5"/>
     </row>
-    <row r="434" spans="2:2" ht="13.2">
+    <row r="434" spans="2:2" ht="12.75">
       <c r="B434" s="5"/>
     </row>
-    <row r="435" spans="2:2" ht="13.2">
+    <row r="435" spans="2:2" ht="12.75">
       <c r="B435" s="5"/>
     </row>
-    <row r="436" spans="2:2" ht="13.2">
+    <row r="436" spans="2:2" ht="12.75">
       <c r="B436" s="5"/>
     </row>
-    <row r="437" spans="2:2" ht="13.2">
+    <row r="437" spans="2:2" ht="12.75">
       <c r="B437" s="5"/>
     </row>
-    <row r="438" spans="2:2" ht="13.2">
+    <row r="438" spans="2:2" ht="12.75">
       <c r="B438" s="5"/>
     </row>
-    <row r="439" spans="2:2" ht="13.2">
+    <row r="439" spans="2:2" ht="12.75">
       <c r="B439" s="5"/>
     </row>
-    <row r="440" spans="2:2" ht="13.2">
+    <row r="440" spans="2:2" ht="12.75">
       <c r="B440" s="5"/>
     </row>
-    <row r="441" spans="2:2" ht="13.2">
+    <row r="441" spans="2:2" ht="12.75">
       <c r="B441" s="5"/>
     </row>
-    <row r="442" spans="2:2" ht="13.2">
+    <row r="442" spans="2:2" ht="12.75">
       <c r="B442" s="5"/>
     </row>
-    <row r="443" spans="2:2" ht="13.2">
+    <row r="443" spans="2:2" ht="12.75">
       <c r="B443" s="5"/>
     </row>
-    <row r="444" spans="2:2" ht="13.2">
+    <row r="444" spans="2:2" ht="12.75">
       <c r="B444" s="5"/>
     </row>
-    <row r="445" spans="2:2" ht="13.2">
+    <row r="445" spans="2:2" ht="12.75">
       <c r="B445" s="5"/>
     </row>
-    <row r="446" spans="2:2" ht="13.2">
+    <row r="446" spans="2:2" ht="12.75">
       <c r="B446" s="5"/>
     </row>
-    <row r="447" spans="2:2" ht="13.2">
+    <row r="447" spans="2:2" ht="12.75">
       <c r="B447" s="5"/>
     </row>
-    <row r="448" spans="2:2" ht="13.2">
+    <row r="448" spans="2:2" ht="12.75">
       <c r="B448" s="5"/>
     </row>
-    <row r="449" spans="2:2" ht="13.2">
+    <row r="449" spans="2:2" ht="12.75">
       <c r="B449" s="5"/>
     </row>
-    <row r="450" spans="2:2" ht="13.2">
+    <row r="450" spans="2:2" ht="12.75">
       <c r="B450" s="5"/>
     </row>
-    <row r="451" spans="2:2" ht="13.2">
+    <row r="451" spans="2:2" ht="12.75">
       <c r="B451" s="5"/>
     </row>
-    <row r="452" spans="2:2" ht="13.2">
+    <row r="452" spans="2:2" ht="12.75">
       <c r="B452" s="5"/>
     </row>
-    <row r="453" spans="2:2" ht="13.2">
+    <row r="453" spans="2:2" ht="12.75">
       <c r="B453" s="5"/>
     </row>
-    <row r="454" spans="2:2" ht="13.2">
+    <row r="454" spans="2:2" ht="12.75">
       <c r="B454" s="5"/>
     </row>
-    <row r="455" spans="2:2" ht="13.2">
+    <row r="455" spans="2:2" ht="12.75">
       <c r="B455" s="5"/>
     </row>
-    <row r="456" spans="2:2" ht="13.2">
+    <row r="456" spans="2:2" ht="12.75">
       <c r="B456" s="5"/>
     </row>
-    <row r="457" spans="2:2" ht="13.2">
+    <row r="457" spans="2:2" ht="12.75">
       <c r="B457" s="5"/>
     </row>
-    <row r="458" spans="2:2" ht="13.2">
+    <row r="458" spans="2:2" ht="12.75">
       <c r="B458" s="5"/>
     </row>
-    <row r="459" spans="2:2" ht="13.2">
+    <row r="459" spans="2:2" ht="12.75">
       <c r="B459" s="5"/>
     </row>
-    <row r="460" spans="2:2" ht="13.2">
+    <row r="460" spans="2:2" ht="12.75">
       <c r="B460" s="5"/>
     </row>
-    <row r="461" spans="2:2" ht="13.2">
+    <row r="461" spans="2:2" ht="12.75">
       <c r="B461" s="5"/>
     </row>
-    <row r="462" spans="2:2" ht="13.2">
+    <row r="462" spans="2:2" ht="12.75">
       <c r="B462" s="5"/>
     </row>
-    <row r="463" spans="2:2" ht="13.2">
+    <row r="463" spans="2:2" ht="12.75">
       <c r="B463" s="5"/>
     </row>
-    <row r="464" spans="2:2" ht="13.2">
+    <row r="464" spans="2:2" ht="12.75">
       <c r="B464" s="5"/>
     </row>
-    <row r="465" spans="2:2" ht="13.2">
+    <row r="465" spans="2:2" ht="12.75">
       <c r="B465" s="5"/>
     </row>
-    <row r="466" spans="2:2" ht="13.2">
+    <row r="466" spans="2:2" ht="12.75">
       <c r="B466" s="5"/>
     </row>
-    <row r="467" spans="2:2" ht="13.2">
+    <row r="467" spans="2:2" ht="12.75">
       <c r="B467" s="5"/>
     </row>
-    <row r="468" spans="2:2" ht="13.2">
+    <row r="468" spans="2:2" ht="12.75">
       <c r="B468" s="5"/>
     </row>
-    <row r="469" spans="2:2" ht="13.2">
+    <row r="469" spans="2:2" ht="12.75">
       <c r="B469" s="5"/>
     </row>
-    <row r="470" spans="2:2" ht="13.2">
+    <row r="470" spans="2:2" ht="12.75">
       <c r="B470" s="5"/>
     </row>
-    <row r="471" spans="2:2" ht="13.2">
+    <row r="471" spans="2:2" ht="12.75">
       <c r="B471" s="5"/>
     </row>
-    <row r="472" spans="2:2" ht="13.2">
+    <row r="472" spans="2:2" ht="12.75">
       <c r="B472" s="5"/>
     </row>
-    <row r="473" spans="2:2" ht="13.2">
+    <row r="473" spans="2:2" ht="12.75">
       <c r="B473" s="5"/>
     </row>
-    <row r="474" spans="2:2" ht="13.2">
+    <row r="474" spans="2:2" ht="12.75">
       <c r="B474" s="5"/>
     </row>
-    <row r="475" spans="2:2" ht="13.2">
+    <row r="475" spans="2:2" ht="12.75">
       <c r="B475" s="5"/>
     </row>
-    <row r="476" spans="2:2" ht="13.2">
+    <row r="476" spans="2:2" ht="12.75">
       <c r="B476" s="5"/>
     </row>
-    <row r="477" spans="2:2" ht="13.2">
+    <row r="477" spans="2:2" ht="12.75">
       <c r="B477" s="5"/>
     </row>
-    <row r="478" spans="2:2" ht="13.2">
+    <row r="478" spans="2:2" ht="12.75">
       <c r="B478" s="5"/>
     </row>
-    <row r="479" spans="2:2" ht="13.2">
+    <row r="479" spans="2:2" ht="12.75">
       <c r="B479" s="5"/>
     </row>
-    <row r="480" spans="2:2" ht="13.2">
+    <row r="480" spans="2:2" ht="12.75">
       <c r="B480" s="5"/>
     </row>
-    <row r="481" spans="2:2" ht="13.2">
+    <row r="481" spans="2:2" ht="12.75">
       <c r="B481" s="5"/>
     </row>
-    <row r="482" spans="2:2" ht="13.2">
+    <row r="482" spans="2:2" ht="12.75">
       <c r="B482" s="5"/>
     </row>
-    <row r="483" spans="2:2" ht="13.2">
+    <row r="483" spans="2:2" ht="12.75">
       <c r="B483" s="5"/>
     </row>
-    <row r="484" spans="2:2" ht="13.2">
+    <row r="484" spans="2:2" ht="12.75">
       <c r="B484" s="5"/>
     </row>
-    <row r="485" spans="2:2" ht="13.2">
+    <row r="485" spans="2:2" ht="12.75">
       <c r="B485" s="5"/>
     </row>
-    <row r="486" spans="2:2" ht="13.2">
+    <row r="486" spans="2:2" ht="12.75">
       <c r="B486" s="5"/>
     </row>
-    <row r="487" spans="2:2" ht="13.2">
+    <row r="487" spans="2:2" ht="12.75">
       <c r="B487" s="5"/>
     </row>
-    <row r="488" spans="2:2" ht="13.2">
+    <row r="488" spans="2:2" ht="12.75">
       <c r="B488" s="5"/>
     </row>
-    <row r="489" spans="2:2" ht="13.2">
+    <row r="489" spans="2:2" ht="12.75">
       <c r="B489" s="5"/>
     </row>
-    <row r="490" spans="2:2" ht="13.2">
+    <row r="490" spans="2:2" ht="12.75">
       <c r="B490" s="5"/>
     </row>
-    <row r="491" spans="2:2" ht="13.2">
+    <row r="491" spans="2:2" ht="12.75">
       <c r="B491" s="5"/>
     </row>
-    <row r="492" spans="2:2" ht="13.2">
+    <row r="492" spans="2:2" ht="12.75">
       <c r="B492" s="5"/>
     </row>
-    <row r="493" spans="2:2" ht="13.2">
+    <row r="493" spans="2:2" ht="12.75">
       <c r="B493" s="5"/>
     </row>
-    <row r="494" spans="2:2" ht="13.2">
+    <row r="494" spans="2:2" ht="12.75">
       <c r="B494" s="5"/>
     </row>
-    <row r="495" spans="2:2" ht="13.2">
+    <row r="495" spans="2:2" ht="12.75">
       <c r="B495" s="5"/>
     </row>
-    <row r="496" spans="2:2" ht="13.2">
+    <row r="496" spans="2:2" ht="12.75">
       <c r="B496" s="5"/>
     </row>
-    <row r="497" spans="2:2" ht="13.2">
+    <row r="497" spans="2:2" ht="12.75">
       <c r="B497" s="5"/>
     </row>
-    <row r="498" spans="2:2" ht="13.2">
+    <row r="498" spans="2:2" ht="12.75">
       <c r="B498" s="5"/>
     </row>
-    <row r="499" spans="2:2" ht="13.2">
+    <row r="499" spans="2:2" ht="12.75">
       <c r="B499" s="5"/>
     </row>
-    <row r="500" spans="2:2" ht="13.2">
+    <row r="500" spans="2:2" ht="12.75">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="2:2" ht="13.2">
+    <row r="501" spans="2:2" ht="12.75">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="2:2" ht="13.2">
+    <row r="502" spans="2:2" ht="12.75">
       <c r="B502" s="5"/>
     </row>
-    <row r="503" spans="2:2" ht="13.2">
+    <row r="503" spans="2:2" ht="12.75">
       <c r="B503" s="5"/>
     </row>
-    <row r="504" spans="2:2" ht="13.2">
+    <row r="504" spans="2:2" ht="12.75">
       <c r="B504" s="5"/>
     </row>
-    <row r="505" spans="2:2" ht="13.2">
+    <row r="505" spans="2:2" ht="12.75">
       <c r="B505" s="5"/>
     </row>
-    <row r="506" spans="2:2" ht="13.2">
+    <row r="506" spans="2:2" ht="12.75">
       <c r="B506" s="5"/>
     </row>
-    <row r="507" spans="2:2" ht="13.2">
+    <row r="507" spans="2:2" ht="12.75">
       <c r="B507" s="5"/>
     </row>
-    <row r="508" spans="2:2" ht="13.2">
+    <row r="508" spans="2:2" ht="12.75">
       <c r="B508" s="5"/>
     </row>
-    <row r="509" spans="2:2" ht="13.2">
+    <row r="509" spans="2:2" ht="12.75">
       <c r="B509" s="5"/>
     </row>
-    <row r="510" spans="2:2" ht="13.2">
+    <row r="510" spans="2:2" ht="12.75">
       <c r="B510" s="5"/>
     </row>
-    <row r="511" spans="2:2" ht="13.2">
+    <row r="511" spans="2:2" ht="12.75">
       <c r="B511" s="5"/>
     </row>
-    <row r="512" spans="2:2" ht="13.2">
+    <row r="512" spans="2:2" ht="12.75">
       <c r="B512" s="5"/>
     </row>
-    <row r="513" spans="2:2" ht="13.2">
+    <row r="513" spans="2:2" ht="12.75">
       <c r="B513" s="5"/>
     </row>
-    <row r="514" spans="2:2" ht="13.2">
+    <row r="514" spans="2:2" ht="12.75">
       <c r="B514" s="5"/>
     </row>
-    <row r="515" spans="2:2" ht="13.2">
+    <row r="515" spans="2:2" ht="12.75">
       <c r="B515" s="5"/>
     </row>
-    <row r="516" spans="2:2" ht="13.2">
+    <row r="516" spans="2:2" ht="12.75">
       <c r="B516" s="5"/>
     </row>
-    <row r="517" spans="2:2" ht="13.2">
+    <row r="517" spans="2:2" ht="12.75">
       <c r="B517" s="5"/>
     </row>
-    <row r="518" spans="2:2" ht="13.2">
+    <row r="518" spans="2:2" ht="12.75">
       <c r="B518" s="5"/>
     </row>
-    <row r="519" spans="2:2" ht="13.2">
+    <row r="519" spans="2:2" ht="12.75">
       <c r="B519" s="5"/>
     </row>
-    <row r="520" spans="2:2" ht="13.2">
+    <row r="520" spans="2:2" ht="12.75">
       <c r="B520" s="5"/>
     </row>
-    <row r="521" spans="2:2" ht="13.2">
+    <row r="521" spans="2:2" ht="12.75">
       <c r="B521" s="5"/>
     </row>
-    <row r="522" spans="2:2" ht="13.2">
+    <row r="522" spans="2:2" ht="12.75">
       <c r="B522" s="5"/>
     </row>
-    <row r="523" spans="2:2" ht="13.2">
+    <row r="523" spans="2:2" ht="12.75">
       <c r="B523" s="5"/>
     </row>
-    <row r="524" spans="2:2" ht="13.2">
+    <row r="524" spans="2:2" ht="12.75">
       <c r="B524" s="5"/>
     </row>
-    <row r="525" spans="2:2" ht="13.2">
+    <row r="525" spans="2:2" ht="12.75">
       <c r="B525" s="5"/>
     </row>
-    <row r="526" spans="2:2" ht="13.2">
+    <row r="526" spans="2:2" ht="12.75">
       <c r="B526" s="5"/>
     </row>
-    <row r="527" spans="2:2" ht="13.2">
+    <row r="527" spans="2:2" ht="12.75">
       <c r="B527" s="5"/>
     </row>
-    <row r="528" spans="2:2" ht="13.2">
+    <row r="528" spans="2:2" ht="12.75">
       <c r="B528" s="5"/>
     </row>
-    <row r="529" spans="2:2" ht="13.2">
+    <row r="529" spans="2:2" ht="12.75">
       <c r="B529" s="5"/>
     </row>
-    <row r="530" spans="2:2" ht="13.2">
+    <row r="530" spans="2:2" ht="12.75">
       <c r="B530" s="5"/>
     </row>
-    <row r="531" spans="2:2" ht="13.2">
+    <row r="531" spans="2:2" ht="12.75">
       <c r="B531" s="5"/>
     </row>
-    <row r="532" spans="2:2" ht="13.2">
+    <row r="532" spans="2:2" ht="12.75">
       <c r="B532" s="5"/>
     </row>
-    <row r="533" spans="2:2" ht="13.2">
+    <row r="533" spans="2:2" ht="12.75">
       <c r="B533" s="5"/>
     </row>
-    <row r="534" spans="2:2" ht="13.2">
+    <row r="534" spans="2:2" ht="12.75">
       <c r="B534" s="5"/>
     </row>
-    <row r="535" spans="2:2" ht="13.2">
+    <row r="535" spans="2:2" ht="12.75">
       <c r="B535" s="5"/>
     </row>
-    <row r="536" spans="2:2" ht="13.2">
+    <row r="536" spans="2:2" ht="12.75">
       <c r="B536" s="5"/>
     </row>
-    <row r="537" spans="2:2" ht="13.2">
+    <row r="537" spans="2:2" ht="12.75">
       <c r="B537" s="5"/>
     </row>
-    <row r="538" spans="2:2" ht="13.2">
+    <row r="538" spans="2:2" ht="12.75">
       <c r="B538" s="5"/>
     </row>
-    <row r="539" spans="2:2" ht="13.2">
+    <row r="539" spans="2:2" ht="12.75">
       <c r="B539" s="5"/>
     </row>
-    <row r="540" spans="2:2" ht="13.2">
+    <row r="540" spans="2:2" ht="12.75">
       <c r="B540" s="5"/>
     </row>
-    <row r="541" spans="2:2" ht="13.2">
+    <row r="541" spans="2:2" ht="12.75">
       <c r="B541" s="5"/>
     </row>
-    <row r="542" spans="2:2" ht="13.2">
+    <row r="542" spans="2:2" ht="12.75">
       <c r="B542" s="5"/>
     </row>
-    <row r="543" spans="2:2" ht="13.2">
+    <row r="543" spans="2:2" ht="12.75">
       <c r="B543" s="5"/>
     </row>
-    <row r="544" spans="2:2" ht="13.2">
+    <row r="544" spans="2:2" ht="12.75">
       <c r="B544" s="5"/>
     </row>
-    <row r="545" spans="2:2" ht="13.2">
+    <row r="545" spans="2:2" ht="12.75">
       <c r="B545" s="5"/>
     </row>
-    <row r="546" spans="2:2" ht="13.2">
+    <row r="546" spans="2:2" ht="12.75">
       <c r="B546" s="5"/>
     </row>
-    <row r="547" spans="2:2" ht="13.2">
+    <row r="547" spans="2:2" ht="12.75">
       <c r="B547" s="5"/>
     </row>
-    <row r="548" spans="2:2" ht="13.2">
+    <row r="548" spans="2:2" ht="12.75">
       <c r="B548" s="5"/>
     </row>
-    <row r="549" spans="2:2" ht="13.2">
+    <row r="549" spans="2:2" ht="12.75">
       <c r="B549" s="5"/>
     </row>
-    <row r="550" spans="2:2" ht="13.2">
+    <row r="550" spans="2:2" ht="12.75">
       <c r="B550" s="5"/>
     </row>
-    <row r="551" spans="2:2" ht="13.2">
+    <row r="551" spans="2:2" ht="12.75">
       <c r="B551" s="5"/>
     </row>
-    <row r="552" spans="2:2" ht="13.2">
+    <row r="552" spans="2:2" ht="12.75">
       <c r="B552" s="5"/>
     </row>
-    <row r="553" spans="2:2" ht="13.2">
+    <row r="553" spans="2:2" ht="12.75">
       <c r="B553" s="5"/>
     </row>
-    <row r="554" spans="2:2" ht="13.2">
+    <row r="554" spans="2:2" ht="12.75">
       <c r="B554" s="5"/>
     </row>
-    <row r="555" spans="2:2" ht="13.2">
+    <row r="555" spans="2:2" ht="12.75">
       <c r="B555" s="5"/>
     </row>
-    <row r="556" spans="2:2" ht="13.2">
+    <row r="556" spans="2:2" ht="12.75">
       <c r="B556" s="5"/>
     </row>
-    <row r="557" spans="2:2" ht="13.2">
+    <row r="557" spans="2:2" ht="12.75">
       <c r="B557" s="5"/>
     </row>
-    <row r="558" spans="2:2" ht="13.2">
+    <row r="558" spans="2:2" ht="12.75">
       <c r="B558" s="5"/>
     </row>
-    <row r="559" spans="2:2" ht="13.2">
+    <row r="559" spans="2:2" ht="12.75">
       <c r="B559" s="5"/>
     </row>
-    <row r="560" spans="2:2" ht="13.2">
+    <row r="560" spans="2:2" ht="12.75">
       <c r="B560" s="5"/>
     </row>
-    <row r="561" spans="2:2" ht="13.2">
+    <row r="561" spans="2:2" ht="12.75">
       <c r="B561" s="5"/>
     </row>
-    <row r="562" spans="2:2" ht="13.2">
+    <row r="562" spans="2:2" ht="12.75">
       <c r="B562" s="5"/>
     </row>
-    <row r="563" spans="2:2" ht="13.2">
+    <row r="563" spans="2:2" ht="12.75">
       <c r="B563" s="5"/>
     </row>
-    <row r="564" spans="2:2" ht="13.2">
+    <row r="564" spans="2:2" ht="12.75">
       <c r="B564" s="5"/>
     </row>
-    <row r="565" spans="2:2" ht="13.2">
+    <row r="565" spans="2:2" ht="12.75">
       <c r="B565" s="5"/>
     </row>
-    <row r="566" spans="2:2" ht="13.2">
+    <row r="566" spans="2:2" ht="12.75">
       <c r="B566" s="5"/>
     </row>
-    <row r="567" spans="2:2" ht="13.2">
+    <row r="567" spans="2:2" ht="12.75">
       <c r="B567" s="5"/>
     </row>
-    <row r="568" spans="2:2" ht="13.2">
+    <row r="568" spans="2:2" ht="12.75">
       <c r="B568" s="5"/>
     </row>
-    <row r="569" spans="2:2" ht="13.2">
+    <row r="569" spans="2:2" ht="12.75">
       <c r="B569" s="5"/>
     </row>
-    <row r="570" spans="2:2" ht="13.2">
+    <row r="570" spans="2:2" ht="12.75">
       <c r="B570" s="5"/>
     </row>
-    <row r="571" spans="2:2" ht="13.2">
+    <row r="571" spans="2:2" ht="12.75">
       <c r="B571" s="5"/>
     </row>
-    <row r="572" spans="2:2" ht="13.2">
+    <row r="572" spans="2:2" ht="12.75">
       <c r="B572" s="5"/>
     </row>
-    <row r="573" spans="2:2" ht="13.2">
+    <row r="573" spans="2:2" ht="12.75">
       <c r="B573" s="5"/>
     </row>
-    <row r="574" spans="2:2" ht="13.2">
+    <row r="574" spans="2:2" ht="12.75">
       <c r="B574" s="5"/>
     </row>
-    <row r="575" spans="2:2" ht="13.2">
+    <row r="575" spans="2:2" ht="12.75">
       <c r="B575" s="5"/>
     </row>
-    <row r="576" spans="2:2" ht="13.2">
+    <row r="576" spans="2:2" ht="12.75">
       <c r="B576" s="5"/>
     </row>
-    <row r="577" spans="2:2" ht="13.2">
+    <row r="577" spans="2:2" ht="12.75">
       <c r="B577" s="5"/>
     </row>
-    <row r="578" spans="2:2" ht="13.2">
+    <row r="578" spans="2:2" ht="12.75">
       <c r="B578" s="5"/>
     </row>
-    <row r="579" spans="2:2" ht="13.2">
+    <row r="579" spans="2:2" ht="12.75">
       <c r="B579" s="5"/>
     </row>
-    <row r="580" spans="2:2" ht="13.2">
+    <row r="580" spans="2:2" ht="12.75">
       <c r="B580" s="5"/>
     </row>
-    <row r="581" spans="2:2" ht="13.2">
+    <row r="581" spans="2:2" ht="12.75">
       <c r="B581" s="5"/>
     </row>
-    <row r="582" spans="2:2" ht="13.2">
+    <row r="582" spans="2:2" ht="12.75">
       <c r="B582" s="5"/>
     </row>
-    <row r="583" spans="2:2" ht="13.2">
+    <row r="583" spans="2:2" ht="12.75">
       <c r="B583" s="5"/>
     </row>
-    <row r="584" spans="2:2" ht="13.2">
+    <row r="584" spans="2:2" ht="12.75">
       <c r="B584" s="5"/>
     </row>
-    <row r="585" spans="2:2" ht="13.2">
+    <row r="585" spans="2:2" ht="12.75">
       <c r="B585" s="5"/>
     </row>
-    <row r="586" spans="2:2" ht="13.2">
+    <row r="586" spans="2:2" ht="12.75">
       <c r="B586" s="5"/>
     </row>
-    <row r="587" spans="2:2" ht="13.2">
+    <row r="587" spans="2:2" ht="12.75">
       <c r="B587" s="5"/>
     </row>
-    <row r="588" spans="2:2" ht="13.2">
+    <row r="588" spans="2:2" ht="12.75">
       <c r="B588" s="5"/>
     </row>
-    <row r="589" spans="2:2" ht="13.2">
+    <row r="589" spans="2:2" ht="12.75">
       <c r="B589" s="5"/>
     </row>
-    <row r="590" spans="2:2" ht="13.2">
+    <row r="590" spans="2:2" ht="12.75">
       <c r="B590" s="5"/>
     </row>
-    <row r="591" spans="2:2" ht="13.2">
+    <row r="591" spans="2:2" ht="12.75">
       <c r="B591" s="5"/>
     </row>
-    <row r="592" spans="2:2" ht="13.2">
+    <row r="592" spans="2:2" ht="12.75">
       <c r="B592" s="5"/>
     </row>
-    <row r="593" spans="2:2" ht="13.2">
+    <row r="593" spans="2:2" ht="12.75">
       <c r="B593" s="5"/>
     </row>
-    <row r="594" spans="2:2" ht="13.2">
+    <row r="594" spans="2:2" ht="12.75">
       <c r="B594" s="5"/>
     </row>
-    <row r="595" spans="2:2" ht="13.2">
+    <row r="595" spans="2:2" ht="12.75">
       <c r="B595" s="5"/>
     </row>
-    <row r="596" spans="2:2" ht="13.2">
+    <row r="596" spans="2:2" ht="12.75">
       <c r="B596" s="5"/>
     </row>
-    <row r="597" spans="2:2" ht="13.2">
+    <row r="597" spans="2:2" ht="12.75">
       <c r="B597" s="5"/>
     </row>
-    <row r="598" spans="2:2" ht="13.2">
+    <row r="598" spans="2:2" ht="12.75">
       <c r="B598" s="5"/>
     </row>
-    <row r="599" spans="2:2" ht="13.2">
+    <row r="599" spans="2:2" ht="12.75">
       <c r="B599" s="5"/>
     </row>
-    <row r="600" spans="2:2" ht="13.2">
+    <row r="600" spans="2:2" ht="12.75">
       <c r="B600" s="5"/>
     </row>
-    <row r="601" spans="2:2" ht="13.2">
+    <row r="601" spans="2:2" ht="12.75">
       <c r="B601" s="5"/>
     </row>
-    <row r="602" spans="2:2" ht="13.2">
+    <row r="602" spans="2:2" ht="12.75">
       <c r="B602" s="5"/>
     </row>
-    <row r="603" spans="2:2" ht="13.2">
+    <row r="603" spans="2:2" ht="12.75">
       <c r="B603" s="5"/>
     </row>
-    <row r="604" spans="2:2" ht="13.2">
+    <row r="604" spans="2:2" ht="12.75">
       <c r="B604" s="5"/>
     </row>
-    <row r="605" spans="2:2" ht="13.2">
+    <row r="605" spans="2:2" ht="12.75">
       <c r="B605" s="5"/>
     </row>
-    <row r="606" spans="2:2" ht="13.2">
+    <row r="606" spans="2:2" ht="12.75">
       <c r="B606" s="5"/>
     </row>
-    <row r="607" spans="2:2" ht="13.2">
+    <row r="607" spans="2:2" ht="12.75">
       <c r="B607" s="5"/>
     </row>
-    <row r="608" spans="2:2" ht="13.2">
+    <row r="608" spans="2:2" ht="12.75">
       <c r="B608" s="5"/>
     </row>
-    <row r="609" spans="2:2" ht="13.2">
+    <row r="609" spans="2:2" ht="12.75">
       <c r="B609" s="5"/>
     </row>
-    <row r="610" spans="2:2" ht="13.2">
+    <row r="610" spans="2:2" ht="12.75">
       <c r="B610" s="5"/>
     </row>
-    <row r="611" spans="2:2" ht="13.2">
+    <row r="611" spans="2:2" ht="12.75">
       <c r="B611" s="5"/>
     </row>
-    <row r="612" spans="2:2" ht="13.2">
+    <row r="612" spans="2:2" ht="12.75">
       <c r="B612" s="5"/>
     </row>
-    <row r="613" spans="2:2" ht="13.2">
+    <row r="613" spans="2:2" ht="12.75">
       <c r="B613" s="5"/>
     </row>
-    <row r="614" spans="2:2" ht="13.2">
+    <row r="614" spans="2:2" ht="12.75">
       <c r="B614" s="5"/>
     </row>
-    <row r="615" spans="2:2" ht="13.2">
+    <row r="615" spans="2:2" ht="12.75">
       <c r="B615" s="5"/>
     </row>
-    <row r="616" spans="2:2" ht="13.2">
+    <row r="616" spans="2:2" ht="12.75">
       <c r="B616" s="5"/>
     </row>
-    <row r="617" spans="2:2" ht="13.2">
+    <row r="617" spans="2:2" ht="12.75">
       <c r="B617" s="5"/>
     </row>
-    <row r="618" spans="2:2" ht="13.2">
+    <row r="618" spans="2:2" ht="12.75">
       <c r="B618" s="5"/>
     </row>
-    <row r="619" spans="2:2" ht="13.2">
+    <row r="619" spans="2:2" ht="12.75">
       <c r="B619" s="5"/>
     </row>
-    <row r="620" spans="2:2" ht="13.2">
+    <row r="620" spans="2:2" ht="12.75">
       <c r="B620" s="5"/>
     </row>
-    <row r="621" spans="2:2" ht="13.2">
+    <row r="621" spans="2:2" ht="12.75">
       <c r="B621" s="5"/>
     </row>
-    <row r="622" spans="2:2" ht="13.2">
+    <row r="622" spans="2:2" ht="12.75">
       <c r="B622" s="5"/>
     </row>
-    <row r="623" spans="2:2" ht="13.2">
+    <row r="623" spans="2:2" ht="12.75">
       <c r="B623" s="5"/>
     </row>
-    <row r="624" spans="2:2" ht="13.2">
+    <row r="624" spans="2:2" ht="12.75">
       <c r="B624" s="5"/>
     </row>
-    <row r="625" spans="2:2" ht="13.2">
+    <row r="625" spans="2:2" ht="12.75">
       <c r="B625" s="5"/>
     </row>
-    <row r="626" spans="2:2" ht="13.2">
+    <row r="626" spans="2:2" ht="12.75">
       <c r="B626" s="5"/>
     </row>
-    <row r="627" spans="2:2" ht="13.2">
+    <row r="627" spans="2:2" ht="12.75">
       <c r="B627" s="5"/>
     </row>
-    <row r="628" spans="2:2" ht="13.2">
+    <row r="628" spans="2:2" ht="12.75">
       <c r="B628" s="5"/>
     </row>
-    <row r="629" spans="2:2" ht="13.2">
+    <row r="629" spans="2:2" ht="12.75">
       <c r="B629" s="5"/>
     </row>
-    <row r="630" spans="2:2" ht="13.2">
+    <row r="630" spans="2:2" ht="12.75">
       <c r="B630" s="5"/>
     </row>
-    <row r="631" spans="2:2" ht="13.2">
+    <row r="631" spans="2:2" ht="12.75">
       <c r="B631" s="5"/>
     </row>
-    <row r="632" spans="2:2" ht="13.2">
+    <row r="632" spans="2:2" ht="12.75">
       <c r="B632" s="5"/>
     </row>
-    <row r="633" spans="2:2" ht="13.2">
+    <row r="633" spans="2:2" ht="12.75">
       <c r="B633" s="5"/>
     </row>
-    <row r="634" spans="2:2" ht="13.2">
+    <row r="634" spans="2:2" ht="12.75">
       <c r="B634" s="5"/>
     </row>
-    <row r="635" spans="2:2" ht="13.2">
+    <row r="635" spans="2:2" ht="12.75">
       <c r="B635" s="5"/>
     </row>
-    <row r="636" spans="2:2" ht="13.2">
+    <row r="636" spans="2:2" ht="12.75">
       <c r="B636" s="5"/>
     </row>
-    <row r="637" spans="2:2" ht="13.2">
+    <row r="637" spans="2:2" ht="12.75">
       <c r="B637" s="5"/>
     </row>
-    <row r="638" spans="2:2" ht="13.2">
+    <row r="638" spans="2:2" ht="12.75">
       <c r="B638" s="5"/>
     </row>
-    <row r="639" spans="2:2" ht="13.2">
+    <row r="639" spans="2:2" ht="12.75">
       <c r="B639" s="5"/>
     </row>
-    <row r="640" spans="2:2" ht="13.2">
+    <row r="640" spans="2:2" ht="12.75">
       <c r="B640" s="5"/>
     </row>
-    <row r="641" spans="2:2" ht="13.2">
+    <row r="641" spans="2:2" ht="12.75">
       <c r="B641" s="5"/>
     </row>
-    <row r="642" spans="2:2" ht="13.2">
+    <row r="642" spans="2:2" ht="12.75">
       <c r="B642" s="5"/>
     </row>
-    <row r="643" spans="2:2" ht="13.2">
+    <row r="643" spans="2:2" ht="12.75">
       <c r="B643" s="5"/>
     </row>
-    <row r="644" spans="2:2" ht="13.2">
+    <row r="644" spans="2:2" ht="12.75">
       <c r="B644" s="5"/>
     </row>
-    <row r="645" spans="2:2" ht="13.2">
+    <row r="645" spans="2:2" ht="12.75">
       <c r="B645" s="5"/>
     </row>
-    <row r="646" spans="2:2" ht="13.2">
+    <row r="646" spans="2:2" ht="12.75">
       <c r="B646" s="5"/>
     </row>
-    <row r="647" spans="2:2" ht="13.2">
+    <row r="647" spans="2:2" ht="12.75">
       <c r="B647" s="5"/>
     </row>
-    <row r="648" spans="2:2" ht="13.2">
+    <row r="648" spans="2:2" ht="12.75">
       <c r="B648" s="5"/>
     </row>
-    <row r="649" spans="2:2" ht="13.2">
+    <row r="649" spans="2:2" ht="12.75">
       <c r="B649" s="5"/>
     </row>
-    <row r="650" spans="2:2" ht="13.2">
+    <row r="650" spans="2:2" ht="12.75">
       <c r="B650" s="5"/>
     </row>
-    <row r="651" spans="2:2" ht="13.2">
+    <row r="651" spans="2:2" ht="12.75">
       <c r="B651" s="5"/>
     </row>
-    <row r="652" spans="2:2" ht="13.2">
+    <row r="652" spans="2:2" ht="12.75">
       <c r="B652" s="5"/>
     </row>
-    <row r="653" spans="2:2" ht="13.2">
+    <row r="653" spans="2:2" ht="12.75">
       <c r="B653" s="5"/>
     </row>
-    <row r="654" spans="2:2" ht="13.2">
+    <row r="654" spans="2:2" ht="12.75">
       <c r="B654" s="5"/>
     </row>
-    <row r="655" spans="2:2" ht="13.2">
+    <row r="655" spans="2:2" ht="12.75">
       <c r="B655" s="5"/>
     </row>
-    <row r="656" spans="2:2" ht="13.2">
+    <row r="656" spans="2:2" ht="12.75">
       <c r="B656" s="5"/>
     </row>
-    <row r="657" spans="2:2" ht="13.2">
+    <row r="657" spans="2:2" ht="12.75">
       <c r="B657" s="5"/>
     </row>
-    <row r="658" spans="2:2" ht="13.2">
+    <row r="658" spans="2:2" ht="12.75">
       <c r="B658" s="5"/>
     </row>
-    <row r="659" spans="2:2" ht="13.2">
+    <row r="659" spans="2:2" ht="12.75">
       <c r="B659" s="5"/>
     </row>
-    <row r="660" spans="2:2" ht="13.2">
+    <row r="660" spans="2:2" ht="12.75">
       <c r="B660" s="5"/>
     </row>
-    <row r="661" spans="2:2" ht="13.2">
+    <row r="661" spans="2:2" ht="12.75">
       <c r="B661" s="5"/>
     </row>
-    <row r="662" spans="2:2" ht="13.2">
+    <row r="662" spans="2:2" ht="12.75">
       <c r="B662" s="5"/>
     </row>
-    <row r="663" spans="2:2" ht="13.2">
+    <row r="663" spans="2:2" ht="12.75">
       <c r="B663" s="5"/>
     </row>
-    <row r="664" spans="2:2" ht="13.2">
+    <row r="664" spans="2:2" ht="12.75">
       <c r="B664" s="5"/>
     </row>
-    <row r="665" spans="2:2" ht="13.2">
+    <row r="665" spans="2:2" ht="12.75">
       <c r="B665" s="5"/>
     </row>
-    <row r="666" spans="2:2" ht="13.2">
+    <row r="666" spans="2:2" ht="12.75">
       <c r="B666" s="5"/>
     </row>
-    <row r="667" spans="2:2" ht="13.2">
+    <row r="667" spans="2:2" ht="12.75">
       <c r="B667" s="5"/>
     </row>
-    <row r="668" spans="2:2" ht="13.2">
+    <row r="668" spans="2:2" ht="12.75">
       <c r="B668" s="5"/>
     </row>
-    <row r="669" spans="2:2" ht="13.2">
+    <row r="669" spans="2:2" ht="12.75">
       <c r="B669" s="5"/>
     </row>
-    <row r="670" spans="2:2" ht="13.2">
+    <row r="670" spans="2:2" ht="12.75">
       <c r="B670" s="5"/>
     </row>
-    <row r="671" spans="2:2" ht="13.2">
+    <row r="671" spans="2:2" ht="12.75">
       <c r="B671" s="5"/>
     </row>
-    <row r="672" spans="2:2" ht="13.2">
+    <row r="672" spans="2:2" ht="12.75">
       <c r="B672" s="5"/>
     </row>
-    <row r="673" spans="2:2" ht="13.2">
+    <row r="673" spans="2:2" ht="12.75">
       <c r="B673" s="5"/>
     </row>
-    <row r="674" spans="2:2" ht="13.2">
+    <row r="674" spans="2:2" ht="12.75">
       <c r="B674" s="5"/>
     </row>
-    <row r="675" spans="2:2" ht="13.2">
+    <row r="675" spans="2:2" ht="12.75">
       <c r="B675" s="5"/>
     </row>
-    <row r="676" spans="2:2" ht="13.2">
+    <row r="676" spans="2:2" ht="12.75">
       <c r="B676" s="5"/>
     </row>
-    <row r="677" spans="2:2" ht="13.2">
+    <row r="677" spans="2:2" ht="12.75">
       <c r="B677" s="5"/>
     </row>
-    <row r="678" spans="2:2" ht="13.2">
+    <row r="678" spans="2:2" ht="12.75">
       <c r="B678" s="5"/>
     </row>
-    <row r="679" spans="2:2" ht="13.2">
+    <row r="679" spans="2:2" ht="12.75">
       <c r="B679" s="5"/>
     </row>
-    <row r="680" spans="2:2" ht="13.2">
+    <row r="680" spans="2:2" ht="12.75">
       <c r="B680" s="5"/>
     </row>
-    <row r="681" spans="2:2" ht="13.2">
+    <row r="681" spans="2:2" ht="12.75">
       <c r="B681" s="5"/>
     </row>
-    <row r="682" spans="2:2" ht="13.2">
+    <row r="682" spans="2:2" ht="12.75">
       <c r="B682" s="5"/>
     </row>
-    <row r="683" spans="2:2" ht="13.2">
+    <row r="683" spans="2:2" ht="12.75">
       <c r="B683" s="5"/>
     </row>
-    <row r="684" spans="2:2" ht="13.2">
+    <row r="684" spans="2:2" ht="12.75">
       <c r="B684" s="5"/>
     </row>
-    <row r="685" spans="2:2" ht="13.2">
+    <row r="685" spans="2:2" ht="12.75">
       <c r="B685" s="5"/>
     </row>
-    <row r="686" spans="2:2" ht="13.2">
+    <row r="686" spans="2:2" ht="12.75">
       <c r="B686" s="5"/>
     </row>
-    <row r="687" spans="2:2" ht="13.2">
+    <row r="687" spans="2:2" ht="12.75">
       <c r="B687" s="5"/>
     </row>
-    <row r="688" spans="2:2" ht="13.2">
+    <row r="688" spans="2:2" ht="12.75">
       <c r="B688" s="5"/>
     </row>
-    <row r="689" spans="2:2" ht="13.2">
+    <row r="689" spans="2:2" ht="12.75">
       <c r="B689" s="5"/>
     </row>
-    <row r="690" spans="2:2" ht="13.2">
+    <row r="690" spans="2:2" ht="12.75">
       <c r="B690" s="5"/>
     </row>
-    <row r="691" spans="2:2" ht="13.2">
+    <row r="691" spans="2:2" ht="12.75">
       <c r="B691" s="5"/>
     </row>
-    <row r="692" spans="2:2" ht="13.2">
+    <row r="692" spans="2:2" ht="12.75">
       <c r="B692" s="5"/>
     </row>
-    <row r="693" spans="2:2" ht="13.2">
+    <row r="693" spans="2:2" ht="12.75">
       <c r="B693" s="5"/>
     </row>
-    <row r="694" spans="2:2" ht="13.2">
+    <row r="694" spans="2:2" ht="12.75">
       <c r="B694" s="5"/>
     </row>
-    <row r="695" spans="2:2" ht="13.2">
+    <row r="695" spans="2:2" ht="12.75">
       <c r="B695" s="5"/>
     </row>
-    <row r="696" spans="2:2" ht="13.2">
+    <row r="696" spans="2:2" ht="12.75">
       <c r="B696" s="5"/>
     </row>
-    <row r="697" spans="2:2" ht="13.2">
+    <row r="697" spans="2:2" ht="12.75">
       <c r="B697" s="5"/>
     </row>
-    <row r="698" spans="2:2" ht="13.2">
+    <row r="698" spans="2:2" ht="12.75">
       <c r="B698" s="5"/>
     </row>
-    <row r="699" spans="2:2" ht="13.2">
+    <row r="699" spans="2:2" ht="12.75">
       <c r="B699" s="5"/>
     </row>
-    <row r="700" spans="2:2" ht="13.2">
+    <row r="700" spans="2:2" ht="12.75">
       <c r="B700" s="5"/>
     </row>
-    <row r="701" spans="2:2" ht="13.2">
+    <row r="701" spans="2:2" ht="12.75">
       <c r="B701" s="5"/>
     </row>
-    <row r="702" spans="2:2" ht="13.2">
+    <row r="702" spans="2:2" ht="12.75">
       <c r="B702" s="5"/>
     </row>
-    <row r="703" spans="2:2" ht="13.2">
+    <row r="703" spans="2:2" ht="12.75">
       <c r="B703" s="5"/>
     </row>
-    <row r="704" spans="2:2" ht="13.2">
+    <row r="704" spans="2:2" ht="12.75">
       <c r="B704" s="5"/>
     </row>
-    <row r="705" spans="2:2" ht="13.2">
+    <row r="705" spans="2:2" ht="12.75">
       <c r="B705" s="5"/>
     </row>
-    <row r="706" spans="2:2" ht="13.2">
+    <row r="706" spans="2:2" ht="12.75">
       <c r="B706" s="5"/>
     </row>
-    <row r="707" spans="2:2" ht="13.2">
+    <row r="707" spans="2:2" ht="12.75">
       <c r="B707" s="5"/>
     </row>
-    <row r="708" spans="2:2" ht="13.2">
+    <row r="708" spans="2:2" ht="12.75">
       <c r="B708" s="5"/>
     </row>
-    <row r="709" spans="2:2" ht="13.2">
+    <row r="709" spans="2:2" ht="12.75">
       <c r="B709" s="5"/>
     </row>
-    <row r="710" spans="2:2" ht="13.2">
+    <row r="710" spans="2:2" ht="12.75">
       <c r="B710" s="5"/>
     </row>
-    <row r="711" spans="2:2" ht="13.2">
+    <row r="711" spans="2:2" ht="12.75">
       <c r="B711" s="5"/>
     </row>
-    <row r="712" spans="2:2" ht="13.2">
+    <row r="712" spans="2:2" ht="12.75">
       <c r="B712" s="5"/>
     </row>
-    <row r="713" spans="2:2" ht="13.2">
+    <row r="713" spans="2:2" ht="12.75">
       <c r="B713" s="5"/>
     </row>
-    <row r="714" spans="2:2" ht="13.2">
+    <row r="714" spans="2:2" ht="12.75">
       <c r="B714" s="5"/>
     </row>
-    <row r="715" spans="2:2" ht="13.2">
+    <row r="715" spans="2:2" ht="12.75">
       <c r="B715" s="5"/>
     </row>
-    <row r="716" spans="2:2" ht="13.2">
+    <row r="716" spans="2:2" ht="12.75">
       <c r="B716" s="5"/>
     </row>
-    <row r="717" spans="2:2" ht="13.2">
+    <row r="717" spans="2:2" ht="12.75">
       <c r="B717" s="5"/>
     </row>
-    <row r="718" spans="2:2" ht="13.2">
+    <row r="718" spans="2:2" ht="12.75">
       <c r="B718" s="5"/>
     </row>
-    <row r="719" spans="2:2" ht="13.2">
+    <row r="719" spans="2:2" ht="12.75">
       <c r="B719" s="5"/>
     </row>
-    <row r="720" spans="2:2" ht="13.2">
+    <row r="720" spans="2:2" ht="12.75">
       <c r="B720" s="5"/>
     </row>
-    <row r="721" spans="2:2" ht="13.2">
+    <row r="721" spans="2:2" ht="12.75">
       <c r="B721" s="5"/>
     </row>
-    <row r="722" spans="2:2" ht="13.2">
+    <row r="722" spans="2:2" ht="12.75">
       <c r="B722" s="5"/>
     </row>
-    <row r="723" spans="2:2" ht="13.2">
+    <row r="723" spans="2:2" ht="12.75">
       <c r="B723" s="5"/>
     </row>
-    <row r="724" spans="2:2" ht="13.2">
+    <row r="724" spans="2:2" ht="12.75">
       <c r="B724" s="5"/>
     </row>
-    <row r="725" spans="2:2" ht="13.2">
+    <row r="725" spans="2:2" ht="12.75">
       <c r="B725" s="5"/>
     </row>
-    <row r="726" spans="2:2" ht="13.2">
+    <row r="726" spans="2:2" ht="12.75">
       <c r="B726" s="5"/>
     </row>
-    <row r="727" spans="2:2" ht="13.2">
+    <row r="727" spans="2:2" ht="12.75">
       <c r="B727" s="5"/>
     </row>
-    <row r="728" spans="2:2" ht="13.2">
+    <row r="728" spans="2:2" ht="12.75">
       <c r="B728" s="5"/>
     </row>
-    <row r="729" spans="2:2" ht="13.2">
+    <row r="729" spans="2:2" ht="12.75">
       <c r="B729" s="5"/>
     </row>
-    <row r="730" spans="2:2" ht="13.2">
+    <row r="730" spans="2:2" ht="12.75">
       <c r="B730" s="5"/>
     </row>
-    <row r="731" spans="2:2" ht="13.2">
+    <row r="731" spans="2:2" ht="12.75">
       <c r="B731" s="5"/>
     </row>
-    <row r="732" spans="2:2" ht="13.2">
+    <row r="732" spans="2:2" ht="12.75">
       <c r="B732" s="5"/>
     </row>
-    <row r="733" spans="2:2" ht="13.2">
+    <row r="733" spans="2:2" ht="12.75">
       <c r="B733" s="5"/>
     </row>
-    <row r="734" spans="2:2" ht="13.2">
+    <row r="734" spans="2:2" ht="12.75">
       <c r="B734" s="5"/>
     </row>
-    <row r="735" spans="2:2" ht="13.2">
+    <row r="735" spans="2:2" ht="12.75">
       <c r="B735" s="5"/>
     </row>
-    <row r="736" spans="2:2" ht="13.2">
+    <row r="736" spans="2:2" ht="12.75">
       <c r="B736" s="5"/>
     </row>
-    <row r="737" spans="2:2" ht="13.2">
+    <row r="737" spans="2:2" ht="12.75">
       <c r="B737" s="5"/>
     </row>
-    <row r="738" spans="2:2" ht="13.2">
+    <row r="738" spans="2:2" ht="12.75">
       <c r="B738" s="5"/>
     </row>
-    <row r="739" spans="2:2" ht="13.2">
+    <row r="739" spans="2:2" ht="12.75">
       <c r="B739" s="5"/>
     </row>
-    <row r="740" spans="2:2" ht="13.2">
+    <row r="740" spans="2:2" ht="12.75">
       <c r="B740" s="5"/>
     </row>
-    <row r="741" spans="2:2" ht="13.2">
+    <row r="741" spans="2:2" ht="12.75">
       <c r="B741" s="5"/>
     </row>
-    <row r="742" spans="2:2" ht="13.2">
+    <row r="742" spans="2:2" ht="12.75">
       <c r="B742" s="5"/>
     </row>
-    <row r="743" spans="2:2" ht="13.2">
+    <row r="743" spans="2:2" ht="12.75">
       <c r="B743" s="5"/>
     </row>
-    <row r="744" spans="2:2" ht="13.2">
+    <row r="744" spans="2:2" ht="12.75">
       <c r="B744" s="5"/>
     </row>
-    <row r="745" spans="2:2" ht="13.2">
+    <row r="745" spans="2:2" ht="12.75">
       <c r="B745" s="5"/>
     </row>
-    <row r="746" spans="2:2" ht="13.2">
+    <row r="746" spans="2:2" ht="12.75">
       <c r="B746" s="5"/>
     </row>
-    <row r="747" spans="2:2" ht="13.2">
+    <row r="747" spans="2:2" ht="12.75">
       <c r="B747" s="5"/>
     </row>
-    <row r="748" spans="2:2" ht="13.2">
+    <row r="748" spans="2:2" ht="12.75">
       <c r="B748" s="5"/>
     </row>
-    <row r="749" spans="2:2" ht="13.2">
+    <row r="749" spans="2:2" ht="12.75">
       <c r="B749" s="5"/>
     </row>
-    <row r="750" spans="2:2" ht="13.2">
+    <row r="750" spans="2:2" ht="12.75">
       <c r="B750" s="5"/>
     </row>
-    <row r="751" spans="2:2" ht="13.2">
+    <row r="751" spans="2:2" ht="12.75">
       <c r="B751" s="5"/>
     </row>
-    <row r="752" spans="2:2" ht="13.2">
+    <row r="752" spans="2:2" ht="12.75">
       <c r="B752" s="5"/>
     </row>
-    <row r="753" spans="2:2" ht="13.2">
+    <row r="753" spans="2:2" ht="12.75">
       <c r="B753" s="5"/>
     </row>
-    <row r="754" spans="2:2" ht="13.2">
+    <row r="754" spans="2:2" ht="12.75">
       <c r="B754" s="5"/>
     </row>
-    <row r="755" spans="2:2" ht="13.2">
+    <row r="755" spans="2:2" ht="12.75">
       <c r="B755" s="5"/>
     </row>
-    <row r="756" spans="2:2" ht="13.2">
+    <row r="756" spans="2:2" ht="12.75">
       <c r="B756" s="5"/>
     </row>
-    <row r="757" spans="2:2" ht="13.2">
+    <row r="757" spans="2:2" ht="12.75">
       <c r="B757" s="5"/>
     </row>
-    <row r="758" spans="2:2" ht="13.2">
+    <row r="758" spans="2:2" ht="12.75">
       <c r="B758" s="5"/>
     </row>
-    <row r="759" spans="2:2" ht="13.2">
+    <row r="759" spans="2:2" ht="12.75">
       <c r="B759" s="5"/>
     </row>
-    <row r="760" spans="2:2" ht="13.2">
+    <row r="760" spans="2:2" ht="12.75">
       <c r="B760" s="5"/>
     </row>
-    <row r="761" spans="2:2" ht="13.2">
+    <row r="761" spans="2:2" ht="12.75">
       <c r="B761" s="5"/>
     </row>
-    <row r="762" spans="2:2" ht="13.2">
+    <row r="762" spans="2:2" ht="12.75">
       <c r="B762" s="5"/>
     </row>
-    <row r="763" spans="2:2" ht="13.2">
+    <row r="763" spans="2:2" ht="12.75">
       <c r="B763" s="5"/>
     </row>
-    <row r="764" spans="2:2" ht="13.2">
+    <row r="764" spans="2:2" ht="12.75">
       <c r="B764" s="5"/>
     </row>
-    <row r="765" spans="2:2" ht="13.2">
+    <row r="765" spans="2:2" ht="12.75">
       <c r="B765" s="5"/>
     </row>
-    <row r="766" spans="2:2" ht="13.2">
+    <row r="766" spans="2:2" ht="12.75">
       <c r="B766" s="5"/>
     </row>
-    <row r="767" spans="2:2" ht="13.2">
+    <row r="767" spans="2:2" ht="12.75">
       <c r="B767" s="5"/>
     </row>
-    <row r="768" spans="2:2" ht="13.2">
+    <row r="768" spans="2:2" ht="12.75">
       <c r="B768" s="5"/>
     </row>
-    <row r="769" spans="2:2" ht="13.2">
+    <row r="769" spans="2:2" ht="12.75">
       <c r="B769" s="5"/>
     </row>
-    <row r="770" spans="2:2" ht="13.2">
+    <row r="770" spans="2:2" ht="12.75">
       <c r="B770" s="5"/>
     </row>
-    <row r="771" spans="2:2" ht="13.2">
+    <row r="771" spans="2:2" ht="12.75">
       <c r="B771" s="5"/>
     </row>
-    <row r="772" spans="2:2" ht="13.2">
+    <row r="772" spans="2:2" ht="12.75">
       <c r="B772" s="5"/>
     </row>
-    <row r="773" spans="2:2" ht="13.2">
+    <row r="773" spans="2:2" ht="12.75">
       <c r="B773" s="5"/>
     </row>
-    <row r="774" spans="2:2" ht="13.2">
+    <row r="774" spans="2:2" ht="12.75">
       <c r="B774" s="5"/>
     </row>
-    <row r="775" spans="2:2" ht="13.2">
+    <row r="775" spans="2:2" ht="12.75">
       <c r="B775" s="5"/>
     </row>
-    <row r="776" spans="2:2" ht="13.2">
+    <row r="776" spans="2:2" ht="12.75">
       <c r="B776" s="5"/>
     </row>
-    <row r="777" spans="2:2" ht="13.2">
+    <row r="777" spans="2:2" ht="12.75">
       <c r="B777" s="5"/>
     </row>
-    <row r="778" spans="2:2" ht="13.2">
+    <row r="778" spans="2:2" ht="12.75">
       <c r="B778" s="5"/>
     </row>
-    <row r="779" spans="2:2" ht="13.2">
+    <row r="779" spans="2:2" ht="12.75">
       <c r="B779" s="5"/>
     </row>
-    <row r="780" spans="2:2" ht="13.2">
+    <row r="780" spans="2:2" ht="12.75">
       <c r="B780" s="5"/>
     </row>
-    <row r="781" spans="2:2" ht="13.2">
+    <row r="781" spans="2:2" ht="12.75">
       <c r="B781" s="5"/>
     </row>
-    <row r="782" spans="2:2" ht="13.2">
+    <row r="782" spans="2:2" ht="12.75">
       <c r="B782" s="5"/>
     </row>
-    <row r="783" spans="2:2" ht="13.2">
+    <row r="783" spans="2:2" ht="12.75">
       <c r="B783" s="5"/>
     </row>
-    <row r="784" spans="2:2" ht="13.2">
+    <row r="784" spans="2:2" ht="12.75">
       <c r="B784" s="5"/>
     </row>
-    <row r="785" spans="2:2" ht="13.2">
+    <row r="785" spans="2:2" ht="12.75">
       <c r="B785" s="5"/>
     </row>
-    <row r="786" spans="2:2" ht="13.2">
+    <row r="786" spans="2:2" ht="12.75">
       <c r="B786" s="5"/>
     </row>
-    <row r="787" spans="2:2" ht="13.2">
+    <row r="787" spans="2:2" ht="12.75">
       <c r="B787" s="5"/>
     </row>
-    <row r="788" spans="2:2" ht="13.2">
+    <row r="788" spans="2:2" ht="12.75">
       <c r="B788" s="5"/>
     </row>
-    <row r="789" spans="2:2" ht="13.2">
+    <row r="789" spans="2:2" ht="12.75">
       <c r="B789" s="5"/>
     </row>
-    <row r="790" spans="2:2" ht="13.2">
+    <row r="790" spans="2:2" ht="12.75">
       <c r="B790" s="5"/>
     </row>
-    <row r="791" spans="2:2" ht="13.2">
+    <row r="791" spans="2:2" ht="12.75">
       <c r="B791" s="5"/>
     </row>
-    <row r="792" spans="2:2" ht="13.2">
+    <row r="792" spans="2:2" ht="12.75">
       <c r="B792" s="5"/>
     </row>
-    <row r="793" spans="2:2" ht="13.2">
+    <row r="793" spans="2:2" ht="12.75">
       <c r="B793" s="5"/>
     </row>
-    <row r="794" spans="2:2" ht="13.2">
+    <row r="794" spans="2:2" ht="12.75">
       <c r="B794" s="5"/>
     </row>
-    <row r="795" spans="2:2" ht="13.2">
+    <row r="795" spans="2:2" ht="12.75">
       <c r="B795" s="5"/>
     </row>
-    <row r="796" spans="2:2" ht="13.2">
+    <row r="796" spans="2:2" ht="12.75">
       <c r="B796" s="5"/>
     </row>
-    <row r="797" spans="2:2" ht="13.2">
+    <row r="797" spans="2:2" ht="12.75">
       <c r="B797" s="5"/>
     </row>
-    <row r="798" spans="2:2" ht="13.2">
+    <row r="798" spans="2:2" ht="12.75">
       <c r="B798" s="5"/>
     </row>
-    <row r="799" spans="2:2" ht="13.2">
+    <row r="799" spans="2:2" ht="12.75">
       <c r="B799" s="5"/>
     </row>
-    <row r="800" spans="2:2" ht="13.2">
+    <row r="800" spans="2:2" ht="12.75">
       <c r="B800" s="5"/>
     </row>
-    <row r="801" spans="2:2" ht="13.2">
+    <row r="801" spans="2:2" ht="12.75">
       <c r="B801" s="5"/>
     </row>
-    <row r="802" spans="2:2" ht="13.2">
+    <row r="802" spans="2:2" ht="12.75">
       <c r="B802" s="5"/>
     </row>
-    <row r="803" spans="2:2" ht="13.2">
+    <row r="803" spans="2:2" ht="12.75">
       <c r="B803" s="5"/>
     </row>
-    <row r="804" spans="2:2" ht="13.2">
+    <row r="804" spans="2:2" ht="12.75">
       <c r="B804" s="5"/>
     </row>
-    <row r="805" spans="2:2" ht="13.2">
+    <row r="805" spans="2:2" ht="12.75">
       <c r="B805" s="5"/>
     </row>
-    <row r="806" spans="2:2" ht="13.2">
+    <row r="806" spans="2:2" ht="12.75">
       <c r="B806" s="5"/>
     </row>
-    <row r="807" spans="2:2" ht="13.2">
+    <row r="807" spans="2:2" ht="12.75">
       <c r="B807" s="5"/>
     </row>
-    <row r="808" spans="2:2" ht="13.2">
+    <row r="808" spans="2:2" ht="12.75">
       <c r="B808" s="5"/>
     </row>
-    <row r="809" spans="2:2" ht="13.2">
+    <row r="809" spans="2:2" ht="12.75">
       <c r="B809" s="5"/>
     </row>
-    <row r="810" spans="2:2" ht="13.2">
+    <row r="810" spans="2:2" ht="12.75">
       <c r="B810" s="5"/>
     </row>
-    <row r="811" spans="2:2" ht="13.2">
+    <row r="811" spans="2:2" ht="12.75">
       <c r="B811" s="5"/>
     </row>
-    <row r="812" spans="2:2" ht="13.2">
+    <row r="812" spans="2:2" ht="12.75">
       <c r="B812" s="5"/>
     </row>
-    <row r="813" spans="2:2" ht="13.2">
+    <row r="813" spans="2:2" ht="12.75">
       <c r="B813" s="5"/>
     </row>
-    <row r="814" spans="2:2" ht="13.2">
+    <row r="814" spans="2:2" ht="12.75">
       <c r="B814" s="5"/>
     </row>
-    <row r="815" spans="2:2" ht="13.2">
+    <row r="815" spans="2:2" ht="12.75">
       <c r="B815" s="5"/>
     </row>
-    <row r="816" spans="2:2" ht="13.2">
+    <row r="816" spans="2:2" ht="12.75">
       <c r="B816" s="5"/>
     </row>
-    <row r="817" spans="2:2" ht="13.2">
+    <row r="817" spans="2:2" ht="12.75">
       <c r="B817" s="5"/>
     </row>
-    <row r="818" spans="2:2" ht="13.2">
+    <row r="818" spans="2:2" ht="12.75">
       <c r="B818" s="5"/>
     </row>
-    <row r="819" spans="2:2" ht="13.2">
+    <row r="819" spans="2:2" ht="12.75">
       <c r="B819" s="5"/>
     </row>
-    <row r="820" spans="2:2" ht="13.2">
+    <row r="820" spans="2:2" ht="12.75">
       <c r="B820" s="5"/>
     </row>
-    <row r="821" spans="2:2" ht="13.2">
+    <row r="821" spans="2:2" ht="12.75">
       <c r="B821" s="5"/>
     </row>
-    <row r="822" spans="2:2" ht="13.2">
+    <row r="822" spans="2:2" ht="12.75">
       <c r="B822" s="5"/>
     </row>
-    <row r="823" spans="2:2" ht="13.2">
+    <row r="823" spans="2:2" ht="12.75">
       <c r="B823" s="5"/>
     </row>
-    <row r="824" spans="2:2" ht="13.2">
+    <row r="824" spans="2:2" ht="12.75">
       <c r="B824" s="5"/>
     </row>
-    <row r="825" spans="2:2" ht="13.2">
+    <row r="825" spans="2:2" ht="12.75">
       <c r="B825" s="5"/>
     </row>
-    <row r="826" spans="2:2" ht="13.2">
+    <row r="826" spans="2:2" ht="12.75">
       <c r="B826" s="5"/>
     </row>
-    <row r="827" spans="2:2" ht="13.2">
+    <row r="827" spans="2:2" ht="12.75">
       <c r="B827" s="5"/>
     </row>
-    <row r="828" spans="2:2" ht="13.2">
+    <row r="828" spans="2:2" ht="12.75">
       <c r="B828" s="5"/>
     </row>
-    <row r="829" spans="2:2" ht="13.2">
+    <row r="829" spans="2:2" ht="12.75">
       <c r="B829" s="5"/>
     </row>
-    <row r="830" spans="2:2" ht="13.2">
+    <row r="830" spans="2:2" ht="12.75">
       <c r="B830" s="5"/>
     </row>
-    <row r="831" spans="2:2" ht="13.2">
+    <row r="831" spans="2:2" ht="12.75">
       <c r="B831" s="5"/>
     </row>
-    <row r="832" spans="2:2" ht="13.2">
+    <row r="832" spans="2:2" ht="12.75">
       <c r="B832" s="5"/>
     </row>
-    <row r="833" spans="2:2" ht="13.2">
+    <row r="833" spans="2:2" ht="12.75">
       <c r="B833" s="5"/>
     </row>
-    <row r="834" spans="2:2" ht="13.2">
+    <row r="834" spans="2:2" ht="12.75">
       <c r="B834" s="5"/>
     </row>
-    <row r="835" spans="2:2" ht="13.2">
+    <row r="835" spans="2:2" ht="12.75">
       <c r="B835" s="5"/>
     </row>
-    <row r="836" spans="2:2" ht="13.2">
+    <row r="836" spans="2:2" ht="12.75">
       <c r="B836" s="5"/>
     </row>
-    <row r="837" spans="2:2" ht="13.2">
+    <row r="837" spans="2:2" ht="12.75">
       <c r="B837" s="5"/>
     </row>
-    <row r="838" spans="2:2" ht="13.2">
+    <row r="838" spans="2:2" ht="12.75">
       <c r="B838" s="5"/>
     </row>
-    <row r="839" spans="2:2" ht="13.2">
+    <row r="839" spans="2:2" ht="12.75">
       <c r="B839" s="5"/>
     </row>
-    <row r="840" spans="2:2" ht="13.2">
+    <row r="840" spans="2:2" ht="12.75">
       <c r="B840" s="5"/>
     </row>
-    <row r="841" spans="2:2" ht="13.2">
+    <row r="841" spans="2:2" ht="12.75">
       <c r="B841" s="5"/>
     </row>
-    <row r="842" spans="2:2" ht="13.2">
+    <row r="842" spans="2:2" ht="12.75">
       <c r="B842" s="5"/>
     </row>
-    <row r="843" spans="2:2" ht="13.2">
+    <row r="843" spans="2:2" ht="12.75">
       <c r="B843" s="5"/>
     </row>
-    <row r="844" spans="2:2" ht="13.2">
+    <row r="844" spans="2:2" ht="12.75">
       <c r="B844" s="5"/>
     </row>
-    <row r="845" spans="2:2" ht="13.2">
+    <row r="845" spans="2:2" ht="12.75">
       <c r="B845" s="5"/>
     </row>
-    <row r="846" spans="2:2" ht="13.2">
+    <row r="846" spans="2:2" ht="12.75">
       <c r="B846" s="5"/>
     </row>
-    <row r="847" spans="2:2" ht="13.2">
+    <row r="847" spans="2:2" ht="12.75">
       <c r="B847" s="5"/>
     </row>
-    <row r="848" spans="2:2" ht="13.2">
+    <row r="848" spans="2:2" ht="12.75">
       <c r="B848" s="5"/>
     </row>
-    <row r="849" spans="2:2" ht="13.2">
+    <row r="849" spans="2:2" ht="12.75">
       <c r="B849" s="5"/>
     </row>
-    <row r="850" spans="2:2" ht="13.2">
+    <row r="850" spans="2:2" ht="12.75">
       <c r="B850" s="5"/>
     </row>
-    <row r="851" spans="2:2" ht="13.2">
+    <row r="851" spans="2:2" ht="12.75">
       <c r="B851" s="5"/>
     </row>
-    <row r="852" spans="2:2" ht="13.2">
+    <row r="852" spans="2:2" ht="12.75">
       <c r="B852" s="5"/>
     </row>
-    <row r="853" spans="2:2" ht="13.2">
+    <row r="853" spans="2:2" ht="12.75">
       <c r="B853" s="5"/>
     </row>
-    <row r="854" spans="2:2" ht="13.2">
+    <row r="854" spans="2:2" ht="12.75">
       <c r="B854" s="5"/>
     </row>
-    <row r="855" spans="2:2" ht="13.2">
+    <row r="855" spans="2:2" ht="12.75">
       <c r="B855" s="5"/>
     </row>
-    <row r="856" spans="2:2" ht="13.2">
+    <row r="856" spans="2:2" ht="12.75">
       <c r="B856" s="5"/>
     </row>
-    <row r="857" spans="2:2" ht="13.2">
+    <row r="857" spans="2:2" ht="12.75">
       <c r="B857" s="5"/>
     </row>
-    <row r="858" spans="2:2" ht="13.2">
+    <row r="858" spans="2:2" ht="12.75">
       <c r="B858" s="5"/>
     </row>
-    <row r="859" spans="2:2" ht="13.2">
+    <row r="859" spans="2:2" ht="12.75">
       <c r="B859" s="5"/>
     </row>
-    <row r="860" spans="2:2" ht="13.2">
+    <row r="860" spans="2:2" ht="12.75">
       <c r="B860" s="5"/>
     </row>
-    <row r="861" spans="2:2" ht="13.2">
+    <row r="861" spans="2:2" ht="12.75">
       <c r="B861" s="5"/>
     </row>
-    <row r="862" spans="2:2" ht="13.2">
+    <row r="862" spans="2:2" ht="12.75">
       <c r="B862" s="5"/>
     </row>
-    <row r="863" spans="2:2" ht="13.2">
+    <row r="863" spans="2:2" ht="12.75">
       <c r="B863" s="5"/>
     </row>
-    <row r="864" spans="2:2" ht="13.2">
+    <row r="864" spans="2:2" ht="12.75">
       <c r="B864" s="5"/>
     </row>
-    <row r="865" spans="2:2" ht="13.2">
+    <row r="865" spans="2:2" ht="12.75">
       <c r="B865" s="5"/>
     </row>
-    <row r="866" spans="2:2" ht="13.2">
+    <row r="866" spans="2:2" ht="12.75">
       <c r="B866" s="5"/>
     </row>
-    <row r="867" spans="2:2" ht="13.2">
+    <row r="867" spans="2:2" ht="12.75">
       <c r="B867" s="5"/>
     </row>
-    <row r="868" spans="2:2" ht="13.2">
+    <row r="868" spans="2:2" ht="12.75">
       <c r="B868" s="5"/>
     </row>
-    <row r="869" spans="2:2" ht="13.2">
+    <row r="869" spans="2:2" ht="12.75">
       <c r="B869" s="5"/>
     </row>
-    <row r="870" spans="2:2" ht="13.2">
+    <row r="870" spans="2:2" ht="12.75">
       <c r="B870" s="5"/>
     </row>
-    <row r="871" spans="2:2" ht="13.2">
+    <row r="871" spans="2:2" ht="12.75">
       <c r="B871" s="5"/>
     </row>
-    <row r="872" spans="2:2" ht="13.2">
+    <row r="872" spans="2:2" ht="12.75">
       <c r="B872" s="5"/>
     </row>
-    <row r="873" spans="2:2" ht="13.2">
+    <row r="873" spans="2:2" ht="12.75">
       <c r="B873" s="5"/>
     </row>
-    <row r="874" spans="2:2" ht="13.2">
+    <row r="874" spans="2:2" ht="12.75">
       <c r="B874" s="5"/>
     </row>
-    <row r="875" spans="2:2" ht="13.2">
+    <row r="875" spans="2:2" ht="12.75">
       <c r="B875" s="5"/>
     </row>
-    <row r="876" spans="2:2" ht="13.2">
+    <row r="876" spans="2:2" ht="12.75">
       <c r="B876" s="5"/>
     </row>
-    <row r="877" spans="2:2" ht="13.2">
+    <row r="877" spans="2:2" ht="12.75">
       <c r="B877" s="5"/>
     </row>
-    <row r="878" spans="2:2" ht="13.2">
+    <row r="878" spans="2:2" ht="12.75">
       <c r="B878" s="5"/>
     </row>
-    <row r="879" spans="2:2" ht="13.2">
+    <row r="879" spans="2:2" ht="12.75">
       <c r="B879" s="5"/>
     </row>
-    <row r="880" spans="2:2" ht="13.2">
+    <row r="880" spans="2:2" ht="12.75">
       <c r="B880" s="5"/>
     </row>
-    <row r="881" spans="2:2" ht="13.2">
+    <row r="881" spans="2:2" ht="12.75">
       <c r="B881" s="5"/>
     </row>
-    <row r="882" spans="2:2" ht="13.2">
+    <row r="882" spans="2:2" ht="12.75">
       <c r="B882" s="5"/>
     </row>
-    <row r="883" spans="2:2" ht="13.2">
+    <row r="883" spans="2:2" ht="12.75">
       <c r="B883" s="5"/>
     </row>
-    <row r="884" spans="2:2" ht="13.2">
+    <row r="884" spans="2:2" ht="12.75">
       <c r="B884" s="5"/>
     </row>
-    <row r="885" spans="2:2" ht="13.2">
+    <row r="885" spans="2:2" ht="12.75">
       <c r="B885" s="5"/>
     </row>
-    <row r="886" spans="2:2" ht="13.2">
+    <row r="886" spans="2:2" ht="12.75">
       <c r="B886" s="5"/>
     </row>
-    <row r="887" spans="2:2" ht="13.2">
+    <row r="887" spans="2:2" ht="12.75">
       <c r="B887" s="5"/>
     </row>
-    <row r="888" spans="2:2" ht="13.2">
+    <row r="888" spans="2:2" ht="12.75">
       <c r="B888" s="5"/>
     </row>
-    <row r="889" spans="2:2" ht="13.2">
+    <row r="889" spans="2:2" ht="12.75">
       <c r="B889" s="5"/>
     </row>
-    <row r="890" spans="2:2" ht="13.2">
+    <row r="890" spans="2:2" ht="12.75">
       <c r="B890" s="5"/>
     </row>
-    <row r="891" spans="2:2" ht="13.2">
+    <row r="891" spans="2:2" ht="12.75">
       <c r="B891" s="5"/>
     </row>
-    <row r="892" spans="2:2" ht="13.2">
+    <row r="892" spans="2:2" ht="12.75">
       <c r="B892" s="5"/>
     </row>
-    <row r="893" spans="2:2" ht="13.2">
+    <row r="893" spans="2:2" ht="12.75">
       <c r="B893" s="5"/>
     </row>
-    <row r="894" spans="2:2" ht="13.2">
+    <row r="894" spans="2:2" ht="12.75">
       <c r="B894" s="5"/>
     </row>
-    <row r="895" spans="2:2" ht="13.2">
+    <row r="895" spans="2:2" ht="12.75">
       <c r="B895" s="5"/>
     </row>
-    <row r="896" spans="2:2" ht="13.2">
+    <row r="896" spans="2:2" ht="12.75">
       <c r="B896" s="5"/>
     </row>
-    <row r="897" spans="2:2" ht="13.2">
+    <row r="897" spans="2:2" ht="12.75">
       <c r="B897" s="5"/>
     </row>
-    <row r="898" spans="2:2" ht="13.2">
+    <row r="898" spans="2:2" ht="12.75">
       <c r="B898" s="5"/>
     </row>
-    <row r="899" spans="2:2" ht="13.2">
+    <row r="899" spans="2:2" ht="12.75">
       <c r="B899" s="5"/>
     </row>
-    <row r="900" spans="2:2" ht="13.2">
+    <row r="900" spans="2:2" ht="12.75">
       <c r="B900" s="5"/>
     </row>
-    <row r="901" spans="2:2" ht="13.2">
+    <row r="901" spans="2:2" ht="12.75">
       <c r="B901" s="5"/>
     </row>
-    <row r="902" spans="2:2" ht="13.2">
+    <row r="902" spans="2:2" ht="12.75">
       <c r="B902" s="5"/>
     </row>
-    <row r="903" spans="2:2" ht="13.2">
+    <row r="903" spans="2:2" ht="12.75">
       <c r="B903" s="5"/>
     </row>
-    <row r="904" spans="2:2" ht="13.2">
+    <row r="904" spans="2:2" ht="12.75">
       <c r="B904" s="5"/>
     </row>
-    <row r="905" spans="2:2" ht="13.2">
+    <row r="905" spans="2:2" ht="12.75">
       <c r="B905" s="5"/>
     </row>
-    <row r="906" spans="2:2" ht="13.2">
+    <row r="906" spans="2:2" ht="12.75">
       <c r="B906" s="5"/>
     </row>
-    <row r="907" spans="2:2" ht="13.2">
+    <row r="907" spans="2:2" ht="12.75">
       <c r="B907" s="5"/>
     </row>
-    <row r="908" spans="2:2" ht="13.2">
+    <row r="908" spans="2:2" ht="12.75">
       <c r="B908" s="5"/>
     </row>
-    <row r="909" spans="2:2" ht="13.2">
+    <row r="909" spans="2:2" ht="12.75">
       <c r="B909" s="5"/>
     </row>
-    <row r="910" spans="2:2" ht="13.2">
+    <row r="910" spans="2:2" ht="12.75">
       <c r="B910" s="5"/>
     </row>
-    <row r="911" spans="2:2" ht="13.2">
+    <row r="911" spans="2:2" ht="12.75">
       <c r="B911" s="5"/>
     </row>
-    <row r="912" spans="2:2" ht="13.2">
+    <row r="912" spans="2:2" ht="12.75">
       <c r="B912" s="5"/>
     </row>
-    <row r="913" spans="2:2" ht="13.2">
+    <row r="913" spans="2:2" ht="12.75">
       <c r="B913" s="5"/>
     </row>
-    <row r="914" spans="2:2" ht="13.2">
+    <row r="914" spans="2:2" ht="12.75">
       <c r="B914" s="5"/>
     </row>
-    <row r="915" spans="2:2" ht="13.2">
+    <row r="915" spans="2:2" ht="12.75">
       <c r="B915" s="5"/>
     </row>
-    <row r="916" spans="2:2" ht="13.2">
+    <row r="916" spans="2:2" ht="12.75">
       <c r="B916" s="5"/>
     </row>
-    <row r="917" spans="2:2" ht="13.2">
+    <row r="917" spans="2:2" ht="12.75">
       <c r="B917" s="5"/>
     </row>
-    <row r="918" spans="2:2" ht="13.2">
+    <row r="918" spans="2:2" ht="12.75">
       <c r="B918" s="5"/>
     </row>
-    <row r="919" spans="2:2" ht="13.2">
+    <row r="919" spans="2:2" ht="12.75">
       <c r="B919" s="5"/>
     </row>
-    <row r="920" spans="2:2" ht="13.2">
+    <row r="920" spans="2:2" ht="12.75">
       <c r="B920" s="5"/>
     </row>
-    <row r="921" spans="2:2" ht="13.2">
+    <row r="921" spans="2:2" ht="12.75">
       <c r="B921" s="5"/>
     </row>
-    <row r="922" spans="2:2" ht="13.2">
+    <row r="922" spans="2:2" ht="12.75">
       <c r="B922" s="5"/>
     </row>
-    <row r="923" spans="2:2" ht="13.2">
+    <row r="923" spans="2:2" ht="12.75">
       <c r="B923" s="5"/>
     </row>
-    <row r="924" spans="2:2" ht="13.2">
+    <row r="924" spans="2:2" ht="12.75">
       <c r="B924" s="5"/>
     </row>
-    <row r="925" spans="2:2" ht="13.2">
+    <row r="925" spans="2:2" ht="12.75">
       <c r="B925" s="5"/>
     </row>
-    <row r="926" spans="2:2" ht="13.2">
+    <row r="926" spans="2:2" ht="12.75">
       <c r="B926" s="5"/>
     </row>
-    <row r="927" spans="2:2" ht="13.2">
+    <row r="927" spans="2:2" ht="12.75">
       <c r="B927" s="5"/>
     </row>
-    <row r="928" spans="2:2" ht="13.2">
+    <row r="928" spans="2:2" ht="12.75">
       <c r="B928" s="5"/>
     </row>
-    <row r="929" spans="2:2" ht="13.2">
+    <row r="929" spans="2:2" ht="12.75">
       <c r="B929" s="5"/>
     </row>
-    <row r="930" spans="2:2" ht="13.2">
+    <row r="930" spans="2:2" ht="12.75">
       <c r="B930" s="5"/>
     </row>
-    <row r="931" spans="2:2" ht="13.2">
+    <row r="931" spans="2:2" ht="12.75">
       <c r="B931" s="5"/>
     </row>
-    <row r="932" spans="2:2" ht="13.2">
+    <row r="932" spans="2:2" ht="12.75">
       <c r="B932" s="5"/>
     </row>
-    <row r="933" spans="2:2" ht="13.2">
+    <row r="933" spans="2:2" ht="12.75">
       <c r="B933" s="5"/>
     </row>
-    <row r="934" spans="2:2" ht="13.2">
+    <row r="934" spans="2:2" ht="12.75">
       <c r="B934" s="5"/>
     </row>
-    <row r="935" spans="2:2" ht="13.2">
+    <row r="935" spans="2:2" ht="12.75">
       <c r="B935" s="5"/>
     </row>
-    <row r="936" spans="2:2" ht="13.2">
+    <row r="936" spans="2:2" ht="12.75">
       <c r="B936" s="5"/>
     </row>
-    <row r="937" spans="2:2" ht="13.2">
+    <row r="937" spans="2:2" ht="12.75">
       <c r="B937" s="5"/>
     </row>
-    <row r="938" spans="2:2" ht="13.2">
+    <row r="938" spans="2:2" ht="12.75">
       <c r="B938" s="5"/>
     </row>
   </sheetData>
@@ -5431,119 +5441,119 @@
     <mergeCell ref="B129:B130"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6" location="running"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A14" r:id="rId9"/>
-    <hyperlink ref="A15" r:id="rId10"/>
-    <hyperlink ref="A16" r:id="rId11"/>
-    <hyperlink ref="A17" r:id="rId12"/>
-    <hyperlink ref="A22" r:id="rId13"/>
-    <hyperlink ref="A23" r:id="rId14"/>
-    <hyperlink ref="A24" r:id="rId15"/>
-    <hyperlink ref="A25" r:id="rId16"/>
-    <hyperlink ref="A28" r:id="rId17"/>
-    <hyperlink ref="A29" r:id="rId18"/>
-    <hyperlink ref="A30" r:id="rId19"/>
-    <hyperlink ref="A36" r:id="rId20"/>
-    <hyperlink ref="A37" r:id="rId21"/>
-    <hyperlink ref="A38" r:id="rId22" location="unpacking-argument-lists"/>
-    <hyperlink ref="A39" r:id="rId23"/>
-    <hyperlink ref="A40" r:id="rId24"/>
-    <hyperlink ref="A41" r:id="rId25"/>
-    <hyperlink ref="A42" r:id="rId26"/>
-    <hyperlink ref="A43" r:id="rId27"/>
-    <hyperlink ref="A49" r:id="rId28"/>
-    <hyperlink ref="A50" r:id="rId29"/>
-    <hyperlink ref="A51" r:id="rId30"/>
-    <hyperlink ref="A52" r:id="rId31"/>
-    <hyperlink ref="A53" r:id="rId32" location="map-filter-and-reduce"/>
-    <hyperlink ref="A54" r:id="rId33"/>
-    <hyperlink ref="A55" r:id="rId34"/>
-    <hyperlink ref="A56" r:id="rId35" location="open"/>
-    <hyperlink ref="A57" r:id="rId36" location="urllib.urlencode"/>
-    <hyperlink ref="A61" r:id="rId37"/>
-    <hyperlink ref="A62" r:id="rId38"/>
-    <hyperlink ref="A63" r:id="rId39"/>
-    <hyperlink ref="A64" r:id="rId40" location="strftime-and-strptime-behavior"/>
-    <hyperlink ref="A65" r:id="rId41" location="date-objects"/>
-    <hyperlink ref="A66" r:id="rId42" location="id2759572"/>
-    <hyperlink ref="A70" r:id="rId43"/>
-    <hyperlink ref="A71" r:id="rId44"/>
-    <hyperlink ref="A72" r:id="rId45"/>
-    <hyperlink ref="A73" r:id="rId46"/>
-    <hyperlink ref="A74" r:id="rId47"/>
-    <hyperlink ref="A75" r:id="rId48"/>
-    <hyperlink ref="A76" r:id="rId49"/>
-    <hyperlink ref="A77" r:id="rId50"/>
-    <hyperlink ref="A81" r:id="rId51"/>
-    <hyperlink ref="A82" r:id="rId52"/>
-    <hyperlink ref="A83" r:id="rId53"/>
-    <hyperlink ref="A84" r:id="rId54"/>
-    <hyperlink ref="A85" r:id="rId55"/>
-    <hyperlink ref="A86" r:id="rId56"/>
-    <hyperlink ref="A87" r:id="rId57"/>
-    <hyperlink ref="A88" r:id="rId58"/>
-    <hyperlink ref="A89" r:id="rId59"/>
-    <hyperlink ref="A90" r:id="rId60"/>
-    <hyperlink ref="A91" r:id="rId61"/>
-    <hyperlink ref="A92" r:id="rId62"/>
-    <hyperlink ref="A93" r:id="rId63"/>
-    <hyperlink ref="A94" r:id="rId64"/>
-    <hyperlink ref="A95" r:id="rId65"/>
-    <hyperlink ref="A96" r:id="rId66"/>
-    <hyperlink ref="A97" r:id="rId67"/>
-    <hyperlink ref="A98" r:id="rId68"/>
-    <hyperlink ref="A99" r:id="rId69"/>
-    <hyperlink ref="A100" r:id="rId70"/>
-    <hyperlink ref="A101" r:id="rId71"/>
-    <hyperlink ref="A102" r:id="rId72"/>
-    <hyperlink ref="A103" r:id="rId73"/>
-    <hyperlink ref="A104" r:id="rId74"/>
-    <hyperlink ref="A108" r:id="rId75"/>
-    <hyperlink ref="A109" r:id="rId76"/>
-    <hyperlink ref="A110" r:id="rId77"/>
-    <hyperlink ref="A111" r:id="rId78"/>
-    <hyperlink ref="A112" r:id="rId79"/>
-    <hyperlink ref="A113" r:id="rId80"/>
-    <hyperlink ref="A114" r:id="rId81"/>
-    <hyperlink ref="A118" r:id="rId82"/>
-    <hyperlink ref="A119" r:id="rId83"/>
-    <hyperlink ref="A120" r:id="rId84"/>
-    <hyperlink ref="A121" r:id="rId85"/>
-    <hyperlink ref="A122" r:id="rId86"/>
-    <hyperlink ref="A123" r:id="rId87"/>
-    <hyperlink ref="A124" r:id="rId88"/>
-    <hyperlink ref="A125" r:id="rId89"/>
-    <hyperlink ref="A126" r:id="rId90"/>
-    <hyperlink ref="A127" r:id="rId91"/>
-    <hyperlink ref="A128" r:id="rId92"/>
-    <hyperlink ref="A129" r:id="rId93"/>
-    <hyperlink ref="A130" r:id="rId94"/>
-    <hyperlink ref="A131" r:id="rId95" location="gid=961694883"/>
-    <hyperlink ref="A132" r:id="rId96"/>
-    <hyperlink ref="A133" r:id="rId97"/>
-    <hyperlink ref="A134" r:id="rId98"/>
-    <hyperlink ref="A135" r:id="rId99"/>
-    <hyperlink ref="A136" r:id="rId100"/>
-    <hyperlink ref="A137" r:id="rId101"/>
-    <hyperlink ref="A138" r:id="rId102"/>
-    <hyperlink ref="A139" r:id="rId103"/>
-    <hyperlink ref="A140" r:id="rId104"/>
-    <hyperlink ref="A141" r:id="rId105"/>
-    <hyperlink ref="A144" r:id="rId106"/>
-    <hyperlink ref="A145" r:id="rId107"/>
-    <hyperlink ref="A149" r:id="rId108"/>
-    <hyperlink ref="A150" r:id="rId109"/>
-    <hyperlink ref="A151" r:id="rId110"/>
-    <hyperlink ref="A157" r:id="rId111"/>
-    <hyperlink ref="A156" r:id="rId112"/>
-    <hyperlink ref="A153" r:id="rId113"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A9" r:id="rId6" location="running" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A37" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A38" r:id="rId22" location="unpacking-argument-lists" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A39" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A49" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A53" r:id="rId32" location="map-filter-and-reduce" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A54" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A56" r:id="rId35" location="open" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A57" r:id="rId36" location="urllib.urlencode" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A63" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A64" r:id="rId40" location="strftime-and-strptime-behavior" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A65" r:id="rId41" location="date-objects" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A66" r:id="rId42" location="id2759572" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A70" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A71" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A72" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A73" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A74" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A75" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A76" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A77" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A81" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A83" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A84" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A85" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A86" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A87" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A88" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A89" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A90" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A91" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A92" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A93" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A94" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A95" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A96" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A99" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A100" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A101" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A102" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A103" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A104" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A108" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A109" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A110" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A111" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A112" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A113" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A114" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A118" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A119" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A120" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A121" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A122" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A123" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A124" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A125" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A126" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A127" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A128" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A129" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A130" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A131" r:id="rId95" location="gid=961694883" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A132" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A133" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A134" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A135" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A136" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A137" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A138" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A139" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A140" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A141" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A144" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A145" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A149" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A150" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A151" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A157" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A156" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A153" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId114"/>
@@ -5551,21 +5561,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="39" t="s">
         <v>387</v>
       </c>
       <c r="B1" t="s">
@@ -5573,7 +5583,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="39" t="s">
         <v>390</v>
       </c>
       <c r="B2" t="s">
@@ -5587,25 +5597,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="102.44140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="102.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="29" customFormat="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="37" t="s">
@@ -5638,7 +5648,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="39.6">
+    <row r="8" spans="1:2" ht="38.25">
       <c r="A8" s="33" t="s">
         <v>369</v>
       </c>
@@ -5646,7 +5656,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26.4">
+    <row r="9" spans="1:2" ht="25.5">
       <c r="A9" s="33" t="s">
         <v>371</v>
       </c>
@@ -5654,7 +5664,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="39.6">
+    <row r="10" spans="1:2" ht="38.25">
       <c r="A10" s="33" t="s">
         <v>373</v>
       </c>
@@ -5665,11 +5675,11 @@
     <row r="11" spans="1:2">
       <c r="A11" s="33"/>
     </row>
-    <row r="12" spans="1:2" ht="19.2" customHeight="1">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:2" ht="19.149999999999999" customHeight="1">
+      <c r="A12" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="33"/>
@@ -5703,7 +5713,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="39.6">
+    <row r="18" spans="1:3" ht="38.25">
       <c r="A18" s="28" t="s">
         <v>383</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.4">
+    <row r="21" spans="1:3" ht="25.5">
       <c r="A21" s="34" t="s">
         <v>386</v>
       </c>
@@ -5738,12 +5748,12 @@
     <row r="22" spans="1:3">
       <c r="A22" s="34"/>
     </row>
-    <row r="27" spans="1:3" ht="13.8">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:3" ht="13.5">
+      <c r="A27" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
@@ -5832,7 +5842,7 @@
       </c>
       <c r="C36" s="31"/>
     </row>
-    <row r="37" spans="1:3" ht="26.4">
+    <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="15" t="s">
         <v>250</v>
       </c>
@@ -5841,7 +5851,7 @@
       </c>
       <c r="C37" s="31"/>
     </row>
-    <row r="38" spans="1:3" ht="26.4">
+    <row r="38" spans="1:3" ht="25.5">
       <c r="A38" s="15" t="s">
         <v>252</v>
       </c>
@@ -5918,7 +5928,7 @@
       </c>
       <c r="C46" s="31"/>
     </row>
-    <row r="47" spans="1:3" ht="26.4">
+    <row r="47" spans="1:3" ht="25.5">
       <c r="A47" s="15" t="s">
         <v>267</v>
       </c>
@@ -5927,7 +5937,7 @@
       </c>
       <c r="C47" s="31"/>
     </row>
-    <row r="48" spans="1:3" ht="26.4">
+    <row r="48" spans="1:3" ht="25.5">
       <c r="A48" s="15" t="s">
         <v>269</v>
       </c>
@@ -5936,7 +5946,7 @@
       </c>
       <c r="C48" s="31"/>
     </row>
-    <row r="49" spans="1:3" ht="26.4">
+    <row r="49" spans="1:3" ht="25.5">
       <c r="A49" s="15" t="s">
         <v>271</v>
       </c>
@@ -5945,7 +5955,7 @@
       </c>
       <c r="C49" s="31"/>
     </row>
-    <row r="50" spans="1:3" ht="26.4">
+    <row r="50" spans="1:3" ht="25.5">
       <c r="A50" s="15" t="s">
         <v>273</v>
       </c>
@@ -5954,7 +5964,7 @@
       </c>
       <c r="C50" s="31"/>
     </row>
-    <row r="51" spans="1:3" ht="26.4">
+    <row r="51" spans="1:3" ht="25.5">
       <c r="A51" s="15" t="s">
         <v>275</v>
       </c>
@@ -5963,7 +5973,7 @@
       </c>
       <c r="C51" s="31"/>
     </row>
-    <row r="52" spans="1:3" ht="26.4">
+    <row r="52" spans="1:3" ht="25.5">
       <c r="A52" s="15" t="s">
         <v>277</v>
       </c>
@@ -6033,7 +6043,7 @@
       </c>
       <c r="C59" s="31"/>
     </row>
-    <row r="60" spans="1:3" ht="26.4">
+    <row r="60" spans="1:3" ht="25.5">
       <c r="A60" s="15" t="s">
         <v>288</v>
       </c>
@@ -6042,7 +6052,7 @@
       </c>
       <c r="C60" s="31"/>
     </row>
-    <row r="61" spans="1:3" ht="26.4">
+    <row r="61" spans="1:3" ht="25.5">
       <c r="A61" s="15" t="s">
         <v>290</v>
       </c>
@@ -6051,7 +6061,7 @@
       </c>
       <c r="C61" s="31"/>
     </row>
-    <row r="62" spans="1:3" ht="26.4">
+    <row r="62" spans="1:3" ht="25.5">
       <c r="A62" s="15" t="s">
         <v>292</v>
       </c>
@@ -6060,7 +6070,7 @@
       </c>
       <c r="C62" s="31"/>
     </row>
-    <row r="63" spans="1:3" ht="26.4">
+    <row r="63" spans="1:3" ht="25.5">
       <c r="A63" s="15" t="s">
         <v>294</v>
       </c>
@@ -6069,7 +6079,7 @@
       </c>
       <c r="C63" s="31"/>
     </row>
-    <row r="64" spans="1:3" ht="26.4">
+    <row r="64" spans="1:3" ht="25.5">
       <c r="A64" s="15" t="s">
         <v>296</v>
       </c>
@@ -6087,7 +6097,7 @@
       </c>
       <c r="C65" s="31"/>
     </row>
-    <row r="66" spans="1:3" ht="26.4">
+    <row r="66" spans="1:3" ht="25.5">
       <c r="A66" s="15" t="s">
         <v>300</v>
       </c>
@@ -6096,7 +6106,7 @@
       </c>
       <c r="C66" s="31"/>
     </row>
-    <row r="67" spans="1:3" ht="26.4">
+    <row r="67" spans="1:3" ht="25.5">
       <c r="A67" s="15" t="s">
         <v>302</v>
       </c>
@@ -6105,7 +6115,7 @@
       </c>
       <c r="C67" s="31"/>
     </row>
-    <row r="68" spans="1:3" ht="79.2">
+    <row r="68" spans="1:3" ht="76.5">
       <c r="A68" s="15" t="s">
         <v>304</v>
       </c>
@@ -6114,7 +6124,7 @@
       </c>
       <c r="C68" s="31"/>
     </row>
-    <row r="69" spans="1:3" ht="26.4">
+    <row r="69" spans="1:3" ht="25.5">
       <c r="A69" s="15" t="s">
         <v>305</v>
       </c>
@@ -6123,7 +6133,7 @@
       </c>
       <c r="C69" s="31"/>
     </row>
-    <row r="70" spans="1:3" ht="26.4">
+    <row r="70" spans="1:3" ht="25.5">
       <c r="A70" s="15" t="s">
         <v>307</v>
       </c>
@@ -6132,7 +6142,7 @@
       </c>
       <c r="C70" s="31"/>
     </row>
-    <row r="71" spans="1:3" ht="26.4">
+    <row r="71" spans="1:3" ht="25.5">
       <c r="A71" s="15" t="s">
         <v>309</v>
       </c>
@@ -6159,7 +6169,7 @@
       </c>
       <c r="C73" s="31"/>
     </row>
-    <row r="74" spans="1:3" ht="26.4">
+    <row r="74" spans="1:3" ht="25.5">
       <c r="A74" s="15" t="s">
         <v>315</v>
       </c>
@@ -6168,7 +6178,7 @@
       </c>
       <c r="C74" s="31"/>
     </row>
-    <row r="75" spans="1:3" ht="26.4">
+    <row r="75" spans="1:3" ht="25.5">
       <c r="A75" s="15" t="s">
         <v>317</v>
       </c>
@@ -6177,7 +6187,7 @@
       </c>
       <c r="C75" s="31"/>
     </row>
-    <row r="76" spans="1:3" ht="118.8">
+    <row r="76" spans="1:3" ht="114.75">
       <c r="A76" s="15" t="s">
         <v>319</v>
       </c>
@@ -6195,7 +6205,7 @@
       </c>
       <c r="C77" s="31"/>
     </row>
-    <row r="78" spans="1:3" ht="26.4">
+    <row r="78" spans="1:3" ht="25.5">
       <c r="A78" s="15" t="s">
         <v>323</v>
       </c>
@@ -6206,7 +6216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="26.4">
+    <row r="79" spans="1:3" ht="25.5">
       <c r="A79" s="15" t="s">
         <v>325</v>
       </c>
@@ -6250,7 +6260,7 @@
       </c>
       <c r="C84" s="32"/>
     </row>
-    <row r="85" spans="1:3" ht="26.4">
+    <row r="85" spans="1:3" ht="25.5">
       <c r="A85" s="22" t="s">
         <v>330</v>
       </c>
@@ -6259,7 +6269,7 @@
       </c>
       <c r="C85" s="32"/>
     </row>
-    <row r="86" spans="1:3" ht="26.4">
+    <row r="86" spans="1:3" ht="25.5">
       <c r="A86" s="22" t="s">
         <v>332</v>
       </c>
@@ -6279,7 +6289,7 @@
       </c>
       <c r="C87" s="32"/>
     </row>
-    <row r="88" spans="1:3" ht="26.4">
+    <row r="88" spans="1:3" ht="25.5">
       <c r="A88" s="22" t="s">
         <v>336</v>
       </c>
@@ -6288,7 +6298,7 @@
       </c>
       <c r="C88" s="32"/>
     </row>
-    <row r="89" spans="1:3" ht="26.4">
+    <row r="89" spans="1:3" ht="25.5">
       <c r="A89" s="22" t="s">
         <v>273</v>
       </c>
@@ -6297,7 +6307,7 @@
       </c>
       <c r="C89" s="32"/>
     </row>
-    <row r="90" spans="1:3" ht="26.4">
+    <row r="90" spans="1:3" ht="25.5">
       <c r="A90" s="2" t="s">
         <v>338</v>
       </c>
@@ -6315,7 +6325,7 @@
       </c>
       <c r="C91" s="32"/>
     </row>
-    <row r="92" spans="1:3" ht="26.4">
+    <row r="92" spans="1:3" ht="25.5">
       <c r="A92" s="22" t="s">
         <v>0</v>
       </c>
@@ -6341,80 +6351,80 @@
     <mergeCell ref="A27:C27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6" location="syllabus" display="https://www.coursera.org/learn/probability-theory-basics - syllabus"/>
-    <hyperlink ref="A10" r:id="rId7" location="syllabus" display="https://www.coursera.org/learn/kombinatorika-dlya-nachinayushchikh - syllabus"/>
-    <hyperlink ref="B15" r:id="rId8"/>
-    <hyperlink ref="B16" r:id="rId9"/>
-    <hyperlink ref="B17" r:id="rId10"/>
-    <hyperlink ref="B18" r:id="rId11"/>
-    <hyperlink ref="B19" r:id="rId12"/>
-    <hyperlink ref="B20" r:id="rId13"/>
-    <hyperlink ref="B21" r:id="rId14"/>
-    <hyperlink ref="A29" r:id="rId15"/>
-    <hyperlink ref="A30" r:id="rId16"/>
-    <hyperlink ref="A31" r:id="rId17" location="toc79"/>
-    <hyperlink ref="A32" r:id="rId18"/>
-    <hyperlink ref="A33" r:id="rId19"/>
-    <hyperlink ref="A34" r:id="rId20"/>
-    <hyperlink ref="A35" r:id="rId21"/>
-    <hyperlink ref="A36" r:id="rId22"/>
-    <hyperlink ref="A37" r:id="rId23"/>
-    <hyperlink ref="A38" r:id="rId24"/>
-    <hyperlink ref="A39" r:id="rId25"/>
-    <hyperlink ref="A40" r:id="rId26" location="statistics-and-random-numbers-scipy-stats"/>
-    <hyperlink ref="A41" r:id="rId27"/>
-    <hyperlink ref="A42" r:id="rId28"/>
-    <hyperlink ref="A45" r:id="rId29"/>
-    <hyperlink ref="A46" r:id="rId30"/>
-    <hyperlink ref="A47" r:id="rId31"/>
-    <hyperlink ref="A48" r:id="rId32"/>
-    <hyperlink ref="A49" r:id="rId33"/>
-    <hyperlink ref="A50" r:id="rId34"/>
-    <hyperlink ref="A51" r:id="rId35"/>
-    <hyperlink ref="A52" r:id="rId36"/>
-    <hyperlink ref="A53" r:id="rId37"/>
-    <hyperlink ref="A54" r:id="rId38"/>
-    <hyperlink ref="A55" r:id="rId39"/>
-    <hyperlink ref="A56" r:id="rId40"/>
-    <hyperlink ref="A59" r:id="rId41"/>
-    <hyperlink ref="A60" r:id="rId42"/>
-    <hyperlink ref="A61" r:id="rId43"/>
-    <hyperlink ref="A62" r:id="rId44"/>
-    <hyperlink ref="A63" r:id="rId45"/>
-    <hyperlink ref="A64" r:id="rId46"/>
-    <hyperlink ref="A65" r:id="rId47"/>
-    <hyperlink ref="A66" r:id="rId48"/>
-    <hyperlink ref="A67" r:id="rId49"/>
-    <hyperlink ref="A68" r:id="rId50"/>
-    <hyperlink ref="A69" r:id="rId51"/>
-    <hyperlink ref="A70" r:id="rId52"/>
-    <hyperlink ref="A71" r:id="rId53"/>
-    <hyperlink ref="A72" r:id="rId54"/>
-    <hyperlink ref="A73" r:id="rId55"/>
-    <hyperlink ref="B73" r:id="rId56"/>
-    <hyperlink ref="A74" r:id="rId57"/>
-    <hyperlink ref="B74" r:id="rId58"/>
-    <hyperlink ref="A75" r:id="rId59"/>
-    <hyperlink ref="A76" r:id="rId60"/>
-    <hyperlink ref="A77" r:id="rId61" location="bayesian"/>
-    <hyperlink ref="A78" r:id="rId62"/>
-    <hyperlink ref="A79" r:id="rId63"/>
-    <hyperlink ref="B79" r:id="rId64"/>
-    <hyperlink ref="A80" r:id="rId65"/>
-    <hyperlink ref="A84" r:id="rId66"/>
-    <hyperlink ref="A85" r:id="rId67"/>
-    <hyperlink ref="A86" r:id="rId68"/>
-    <hyperlink ref="A87" r:id="rId69"/>
-    <hyperlink ref="A88" r:id="rId70" location="one-hot-encoding"/>
-    <hyperlink ref="A89" r:id="rId71"/>
-    <hyperlink ref="A90" r:id="rId72"/>
-    <hyperlink ref="A91" r:id="rId73"/>
-    <hyperlink ref="A92" r:id="rId74"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A9" r:id="rId6" location="syllabus" display="https://www.coursera.org/learn/probability-theory-basics - syllabus" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId7" location="syllabus" display="https://www.coursera.org/learn/kombinatorika-dlya-nachinayushchikh - syllabus" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B17" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A29" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A30" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A31" r:id="rId17" location="toc79" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="A32" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="A33" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="A34" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="A35" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="A36" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="A37" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="A38" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="A39" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="A40" r:id="rId26" location="statistics-and-random-numbers-scipy-stats" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="A41" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="A42" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="A45" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="A46" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="A47" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="A48" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="A49" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="A50" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="A51" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="A52" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="A53" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="A54" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="A55" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="A56" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="A59" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="A60" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="A61" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="A62" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="A63" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="A64" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="A65" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="A66" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="A67" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="A68" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="A69" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="A70" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="A71" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="A72" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="A73" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B73" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="A74" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="A75" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="A76" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="A77" r:id="rId61" location="bayesian" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="A78" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="A79" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="B79" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="A80" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="A84" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="A85" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="A86" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="A87" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="A88" r:id="rId70" location="one-hot-encoding" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="A89" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="A90" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="A91" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="A92" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId75"/>

--- a/Полезные ссылки по Python2.xlsx
+++ b/Полезные ссылки по Python2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Тамара\Documents\Мои документы\Учеба\Аналитик данных\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153349ED-3582-4085-85E6-E25F59C1C38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B1C10D-9E96-4FED-9518-8D3D451D7B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="394">
   <si>
     <t>https://habr.com/ru/company/ods/blog/323890/</t>
   </si>
@@ -1229,12 +1229,18 @@
   <si>
     <t>+</t>
   </si>
+  <si>
+    <t>https://docs.python.org/3/library/datetime.html</t>
+  </si>
+  <si>
+    <t>http://ilfire.ru/kompyutery/shpargalka-po-sintaksisu-markdown-markdaun-so-vsemi-samymi-populyarnymi-tegami/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1243,39 +1249,53 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1287,30 +1307,40 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1330,14 +1360,6 @@
       <sz val="7"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1428,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1518,7 +1540,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1527,12 +1549,13 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1544,7 +1567,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1774,8 +1797,8 @@
   </sheetPr>
   <dimension ref="A1:E938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1789,11 +1812,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -1809,7 +1832,7 @@
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="44"/>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="6" t="s">
@@ -1818,7 +1841,7 @@
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="6" t="s">
@@ -1827,7 +1850,7 @@
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:5" ht="12.75">
       <c r="A6" s="5"/>
@@ -1841,7 +1864,7 @@
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="44"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="14.25">
@@ -1851,7 +1874,7 @@
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="45"/>
     </row>
     <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="11" t="s">
@@ -1860,7 +1883,7 @@
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="45"/>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="6" t="s">
@@ -1869,7 +1892,7 @@
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="28.5">
       <c r="A11" s="6" t="s">
@@ -1878,7 +1901,7 @@
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="45"/>
     </row>
     <row r="12" spans="1:5" ht="12.75">
       <c r="A12" s="5"/>
@@ -2292,7 +2315,7 @@
       <c r="A64" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="41" t="s">
         <v>95</v>
       </c>
       <c r="C64" s="5"/>
@@ -2301,7 +2324,7 @@
       <c r="A65" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="41"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3" ht="12.75">
@@ -2689,7 +2712,7 @@
       <c r="A109" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="41" t="s">
         <v>173</v>
       </c>
       <c r="C109" s="5"/>
@@ -2698,7 +2721,7 @@
       <c r="A110" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B110" s="41"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3" ht="12.75">
@@ -2865,7 +2888,7 @@
       <c r="A129" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B129" s="40" t="s">
+      <c r="B129" s="41" t="s">
         <v>209</v>
       </c>
       <c r="C129" s="5"/>
@@ -2874,7 +2897,7 @@
       <c r="A130" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="41"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:3" ht="25.5">
@@ -3000,14 +3023,14 @@
       <c r="A144" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B144" s="40"/>
+      <c r="B144" s="41"/>
       <c r="C144" s="5"/>
     </row>
     <row r="145" spans="1:3" ht="12.75">
       <c r="A145" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B145" s="41"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="5"/>
     </row>
     <row r="146" spans="1:3" ht="12.75">
@@ -3096,52 +3119,58 @@
     <row r="160" spans="1:3" ht="12.75">
       <c r="B160" s="5"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75">
+    <row r="161" spans="1:2" ht="12.75">
       <c r="B161" s="5"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75">
+    <row r="162" spans="1:2" ht="12.75">
+      <c r="A162" s="40" t="s">
+        <v>392</v>
+      </c>
       <c r="B162" s="5"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75">
+    <row r="163" spans="1:2" ht="12.75">
+      <c r="A163" s="40" t="s">
+        <v>393</v>
+      </c>
       <c r="B163" s="5"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75">
+    <row r="164" spans="1:2" ht="12.75">
       <c r="B164" s="5"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75">
+    <row r="165" spans="1:2" ht="12.75">
       <c r="B165" s="5"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75">
+    <row r="166" spans="1:2" ht="12.75">
       <c r="B166" s="5"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75">
+    <row r="167" spans="1:2" ht="12.75">
       <c r="B167" s="5"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75">
+    <row r="168" spans="1:2" ht="12.75">
       <c r="B168" s="5"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75">
+    <row r="169" spans="1:2" ht="12.75">
       <c r="B169" s="5"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75">
+    <row r="170" spans="1:2" ht="12.75">
       <c r="B170" s="5"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75">
+    <row r="171" spans="1:2" ht="12.75">
       <c r="B171" s="5"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75">
+    <row r="172" spans="1:2" ht="12.75">
       <c r="B172" s="5"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75">
+    <row r="173" spans="1:2" ht="12.75">
       <c r="B173" s="5"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75">
+    <row r="174" spans="1:2" ht="12.75">
       <c r="B174" s="5"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75">
+    <row r="175" spans="1:2" ht="12.75">
       <c r="B175" s="5"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75">
+    <row r="176" spans="1:2" ht="12.75">
       <c r="B176" s="5"/>
     </row>
     <row r="177" spans="2:2" ht="12.75">
@@ -5612,10 +5641,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="29" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="37" t="s">
@@ -5676,10 +5705,10 @@
       <c r="A11" s="33"/>
     </row>
     <row r="12" spans="1:2" ht="19.149999999999999" customHeight="1">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="33"/>
@@ -5749,11 +5778,11 @@
       <c r="A22" s="34"/>
     </row>
     <row r="27" spans="1:3" ht="13.5">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
